--- a/temp_doc/DATA SISWA.xlsx
+++ b/temp_doc/DATA SISWA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E50390E-CC8E-7348-9A46-6F28B069407F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C960F24-A7FF-A143-94D0-FEDD290A8184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{A22911EF-5D24-2343-8839-FFE0F546D574}"/>
   </bookViews>
@@ -3899,9 +3899,6 @@
     <t>K010300980649</t>
   </si>
   <si>
-    <t>STS2023TH</t>
-  </si>
-  <si>
     <t>FAHTAN ABIMANYU PRASETIA</t>
   </si>
   <si>
@@ -3972,6 +3969,9 @@
   </si>
   <si>
     <t>AHMAD NUR MUDZAKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -4353,8 +4353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEC10D9-F9F8-FD44-9CFE-62A6A803E404}">
   <dimension ref="A1:G650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4406,10 +4406,10 @@
         <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>637</v>
+        <v>1310</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4429,10 +4429,10 @@
         <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>638</v>
+        <v>1310</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4452,10 +4452,10 @@
         <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>639</v>
+        <v>1310</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4475,10 +4475,10 @@
         <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>640</v>
+        <v>1310</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4498,10 +4498,10 @@
         <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>641</v>
+        <v>1310</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4521,10 +4521,10 @@
         <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>642</v>
+        <v>1310</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4544,10 +4544,10 @@
         <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>643</v>
+        <v>1310</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4567,10 +4567,10 @@
         <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>644</v>
+        <v>1310</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4590,10 +4590,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>645</v>
+        <v>1310</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4613,10 +4613,10 @@
         <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>646</v>
+        <v>1310</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4636,10 +4636,10 @@
         <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>647</v>
+        <v>1310</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4659,10 +4659,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>648</v>
+        <v>1310</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4673,7 +4673,7 @@
         <v>649</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D14" s="1">
         <v>1001786</v>
@@ -4682,10 +4682,10 @@
         <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>649</v>
+        <v>1310</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4705,10 +4705,10 @@
         <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>650</v>
+        <v>1310</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4728,10 +4728,10 @@
         <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>651</v>
+        <v>1310</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4751,10 +4751,10 @@
         <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>652</v>
+        <v>1310</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4774,10 +4774,10 @@
         <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>653</v>
+        <v>1310</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4797,10 +4797,10 @@
         <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>654</v>
+        <v>1310</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4820,10 +4820,10 @@
         <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>655</v>
+        <v>1310</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4843,10 +4843,10 @@
         <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>656</v>
+        <v>1310</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -4866,10 +4866,10 @@
         <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>657</v>
+        <v>1310</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4889,10 +4889,10 @@
         <v>51</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>658</v>
+        <v>1310</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4912,10 +4912,10 @@
         <v>51</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>659</v>
+        <v>1310</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4935,10 +4935,10 @@
         <v>51</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>660</v>
+        <v>1310</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4958,10 +4958,10 @@
         <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>661</v>
+        <v>1310</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -4981,10 +4981,10 @@
         <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>662</v>
+        <v>1310</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -5004,10 +5004,10 @@
         <v>51</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>663</v>
+        <v>1310</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -5027,10 +5027,10 @@
         <v>51</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>664</v>
+        <v>1310</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -5050,10 +5050,10 @@
         <v>51</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>665</v>
+        <v>1310</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -5073,10 +5073,10 @@
         <v>51</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>666</v>
+        <v>1310</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -5096,10 +5096,10 @@
         <v>51</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>667</v>
+        <v>1310</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -5119,10 +5119,10 @@
         <v>51</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>668</v>
+        <v>1310</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -5142,10 +5142,10 @@
         <v>51</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>669</v>
+        <v>1310</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -5165,10 +5165,10 @@
         <v>51</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>670</v>
+        <v>1310</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -5188,10 +5188,10 @@
         <v>51</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>671</v>
+        <v>1310</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -5211,10 +5211,10 @@
         <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>672</v>
+        <v>1310</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -5234,10 +5234,10 @@
         <v>51</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>673</v>
+        <v>1310</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -5257,10 +5257,10 @@
         <v>51</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>674</v>
+        <v>1310</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -5280,10 +5280,10 @@
         <v>51</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>675</v>
+        <v>1310</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -5303,10 +5303,10 @@
         <v>51</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>676</v>
+        <v>1310</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -5326,10 +5326,10 @@
         <v>51</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>677</v>
+        <v>1310</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -5349,10 +5349,10 @@
         <v>51</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>678</v>
+        <v>1310</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -5372,10 +5372,10 @@
         <v>51</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>679</v>
+        <v>1310</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -5386,7 +5386,7 @@
         <v>680</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D45" s="1">
         <v>1002459</v>
@@ -5395,10 +5395,10 @@
         <v>51</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>680</v>
+        <v>1310</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -5418,10 +5418,10 @@
         <v>51</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>681</v>
+        <v>1310</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -5441,10 +5441,10 @@
         <v>51</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>682</v>
+        <v>1310</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -5464,10 +5464,10 @@
         <v>51</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>683</v>
+        <v>1310</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -5478,7 +5478,7 @@
         <v>684</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D49" s="1">
         <v>1002459</v>
@@ -5487,10 +5487,10 @@
         <v>51</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>684</v>
+        <v>1310</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -5510,10 +5510,10 @@
         <v>51</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>685</v>
+        <v>1310</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -5533,10 +5533,10 @@
         <v>51</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>686</v>
+        <v>1310</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -5556,10 +5556,10 @@
         <v>51</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>687</v>
+        <v>1310</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -5579,10 +5579,10 @@
         <v>51</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>688</v>
+        <v>1310</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -5602,10 +5602,10 @@
         <v>51</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>689</v>
+        <v>1310</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -5625,10 +5625,10 @@
         <v>51</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>690</v>
+        <v>1310</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -5648,10 +5648,10 @@
         <v>51</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>691</v>
+        <v>1310</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -5671,10 +5671,10 @@
         <v>51</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>692</v>
+        <v>1310</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -5694,10 +5694,10 @@
         <v>51</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>693</v>
+        <v>1310</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -5717,10 +5717,10 @@
         <v>51</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>694</v>
+        <v>1310</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -5740,10 +5740,10 @@
         <v>51</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>695</v>
+        <v>1310</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -5763,10 +5763,10 @@
         <v>51</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>696</v>
+        <v>1310</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -5786,10 +5786,10 @@
         <v>51</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>697</v>
+        <v>1310</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -5809,10 +5809,10 @@
         <v>51</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>698</v>
+        <v>1310</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -5832,10 +5832,10 @@
         <v>51</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>699</v>
+        <v>1310</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -5855,10 +5855,10 @@
         <v>51</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>700</v>
+        <v>1310</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -5869,7 +5869,7 @@
         <v>701</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D66" s="1">
         <v>1002459</v>
@@ -5878,10 +5878,10 @@
         <v>51</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>701</v>
+        <v>1310</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -5901,10 +5901,10 @@
         <v>51</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>702</v>
+        <v>1310</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -5924,10 +5924,10 @@
         <v>51</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>703</v>
+        <v>1310</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -5947,10 +5947,10 @@
         <v>51</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>704</v>
+        <v>1310</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -5970,10 +5970,10 @@
         <v>51</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>705</v>
+        <v>1310</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -5993,10 +5993,10 @@
         <v>51</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>706</v>
+        <v>1310</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -6016,10 +6016,10 @@
         <v>51</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>707</v>
+        <v>1310</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -6039,10 +6039,10 @@
         <v>51</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>708</v>
+        <v>1310</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -6062,10 +6062,10 @@
         <v>51</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>709</v>
+        <v>1310</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -6085,10 +6085,10 @@
         <v>51</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>710</v>
+        <v>1310</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -6108,10 +6108,10 @@
         <v>51</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>711</v>
+        <v>1310</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -6131,10 +6131,10 @@
         <v>51</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>712</v>
+        <v>1310</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -6154,10 +6154,10 @@
         <v>51</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>713</v>
+        <v>1310</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -6177,10 +6177,10 @@
         <v>51</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>714</v>
+        <v>1310</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -6200,10 +6200,10 @@
         <v>51</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>715</v>
+        <v>1310</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -6223,10 +6223,10 @@
         <v>51</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>716</v>
+        <v>1310</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -6246,10 +6246,10 @@
         <v>51</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>717</v>
+        <v>1310</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -6269,10 +6269,10 @@
         <v>51</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>718</v>
+        <v>1310</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -6292,10 +6292,10 @@
         <v>51</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>719</v>
+        <v>1310</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -6315,10 +6315,10 @@
         <v>51</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>720</v>
+        <v>1310</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -6338,10 +6338,10 @@
         <v>51</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>721</v>
+        <v>1310</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -6361,10 +6361,10 @@
         <v>51</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>722</v>
+        <v>1310</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -6384,10 +6384,10 @@
         <v>182</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>723</v>
+        <v>1310</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -6407,10 +6407,10 @@
         <v>182</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>724</v>
+        <v>1310</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -6430,10 +6430,10 @@
         <v>182</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>725</v>
+        <v>1310</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -6453,10 +6453,10 @@
         <v>182</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>726</v>
+        <v>1310</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -6476,10 +6476,10 @@
         <v>182</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>727</v>
+        <v>1310</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -6499,10 +6499,10 @@
         <v>182</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>728</v>
+        <v>1310</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -6522,10 +6522,10 @@
         <v>182</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>729</v>
+        <v>1310</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -6545,10 +6545,10 @@
         <v>182</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>730</v>
+        <v>1310</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -6568,10 +6568,10 @@
         <v>182</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>731</v>
+        <v>1310</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -6591,10 +6591,10 @@
         <v>182</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>732</v>
+        <v>1310</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -6614,10 +6614,10 @@
         <v>182</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>733</v>
+        <v>1310</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -6637,10 +6637,10 @@
         <v>182</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>734</v>
+        <v>1310</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -6660,10 +6660,10 @@
         <v>182</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>735</v>
+        <v>1310</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -6683,10 +6683,10 @@
         <v>182</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>736</v>
+        <v>1310</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -6706,10 +6706,10 @@
         <v>182</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>737</v>
+        <v>1310</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -6729,10 +6729,10 @@
         <v>182</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>738</v>
+        <v>1310</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -6752,10 +6752,10 @@
         <v>182</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>739</v>
+        <v>1310</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -6775,10 +6775,10 @@
         <v>182</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>740</v>
+        <v>1310</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -6798,10 +6798,10 @@
         <v>182</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>741</v>
+        <v>1310</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -6821,10 +6821,10 @@
         <v>182</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>742</v>
+        <v>1310</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -6844,10 +6844,10 @@
         <v>182</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>743</v>
+        <v>1310</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -6867,10 +6867,10 @@
         <v>182</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>744</v>
+        <v>1310</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -6890,10 +6890,10 @@
         <v>182</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>745</v>
+        <v>1310</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -6913,10 +6913,10 @@
         <v>182</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>746</v>
+        <v>1310</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -6936,10 +6936,10 @@
         <v>182</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>747</v>
+        <v>1310</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -6959,10 +6959,10 @@
         <v>182</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>748</v>
+        <v>1310</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -6982,10 +6982,10 @@
         <v>182</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>749</v>
+        <v>1310</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -7005,10 +7005,10 @@
         <v>182</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>750</v>
+        <v>1310</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -7028,10 +7028,10 @@
         <v>182</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>751</v>
+        <v>1310</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -7051,10 +7051,10 @@
         <v>182</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>752</v>
+        <v>1310</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -7074,10 +7074,10 @@
         <v>182</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>753</v>
+        <v>1310</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -7097,10 +7097,10 @@
         <v>182</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>754</v>
+        <v>1310</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -7120,10 +7120,10 @@
         <v>182</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>755</v>
+        <v>1310</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -7143,10 +7143,10 @@
         <v>182</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>756</v>
+        <v>1310</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -7166,10 +7166,10 @@
         <v>182</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>757</v>
+        <v>1310</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -7189,10 +7189,10 @@
         <v>182</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>758</v>
+        <v>1310</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -7212,10 +7212,10 @@
         <v>182</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>759</v>
+        <v>1310</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -7235,10 +7235,10 @@
         <v>182</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>760</v>
+        <v>1310</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -7258,10 +7258,10 @@
         <v>182</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>761</v>
+        <v>1310</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -7281,10 +7281,10 @@
         <v>182</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>762</v>
+        <v>1310</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -7304,10 +7304,10 @@
         <v>182</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>763</v>
+        <v>1310</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -7327,10 +7327,10 @@
         <v>182</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>764</v>
+        <v>1310</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -7350,10 +7350,10 @@
         <v>182</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>765</v>
+        <v>1310</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -7364,7 +7364,7 @@
         <v>766</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D131" s="1">
         <v>1003484</v>
@@ -7373,10 +7373,10 @@
         <v>182</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>766</v>
+        <v>1310</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -7396,10 +7396,10 @@
         <v>329</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>767</v>
+        <v>1310</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -7419,10 +7419,10 @@
         <v>329</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>768</v>
+        <v>1310</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -7442,10 +7442,10 @@
         <v>329</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>769</v>
+        <v>1310</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -7465,10 +7465,10 @@
         <v>329</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>770</v>
+        <v>1310</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -7488,10 +7488,10 @@
         <v>329</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>771</v>
+        <v>1310</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -7511,10 +7511,10 @@
         <v>329</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>772</v>
+        <v>1310</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -7534,10 +7534,10 @@
         <v>329</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>773</v>
+        <v>1310</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -7557,10 +7557,10 @@
         <v>329</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>774</v>
+        <v>1310</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -7571,7 +7571,7 @@
         <v>775</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D140" s="1">
         <v>1004460</v>
@@ -7580,10 +7580,10 @@
         <v>329</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>775</v>
+        <v>1310</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -7594,7 +7594,7 @@
         <v>776</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D141" s="1">
         <v>1004460</v>
@@ -7603,10 +7603,10 @@
         <v>329</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>776</v>
+        <v>1310</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -7626,10 +7626,10 @@
         <v>329</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>777</v>
+        <v>1310</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -7649,10 +7649,10 @@
         <v>329</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>778</v>
+        <v>1310</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -7672,10 +7672,10 @@
         <v>329</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>779</v>
+        <v>1310</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -7695,10 +7695,10 @@
         <v>329</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>780</v>
+        <v>1310</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -7709,7 +7709,7 @@
         <v>781</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D146" s="1">
         <v>1004460</v>
@@ -7718,10 +7718,10 @@
         <v>329</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>781</v>
+        <v>1310</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -7741,10 +7741,10 @@
         <v>329</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>782</v>
+        <v>1310</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -7764,10 +7764,10 @@
         <v>329</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>783</v>
+        <v>1310</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -7787,10 +7787,10 @@
         <v>329</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>784</v>
+        <v>1310</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -7810,10 +7810,10 @@
         <v>329</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>785</v>
+        <v>1310</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -7833,10 +7833,10 @@
         <v>329</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>786</v>
+        <v>1310</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -7856,10 +7856,10 @@
         <v>329</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>787</v>
+        <v>1310</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -7879,10 +7879,10 @@
         <v>329</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>788</v>
+        <v>1310</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -7902,10 +7902,10 @@
         <v>329</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>789</v>
+        <v>1310</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -7925,10 +7925,10 @@
         <v>329</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>790</v>
+        <v>1310</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -7948,10 +7948,10 @@
         <v>329</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>791</v>
+        <v>1310</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -7971,10 +7971,10 @@
         <v>329</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>792</v>
+        <v>1310</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -7994,10 +7994,10 @@
         <v>329</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>793</v>
+        <v>1310</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -8017,10 +8017,10 @@
         <v>329</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>794</v>
+        <v>1310</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -8040,10 +8040,10 @@
         <v>329</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>795</v>
+        <v>1310</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -8063,10 +8063,10 @@
         <v>329</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>796</v>
+        <v>1310</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -8086,10 +8086,10 @@
         <v>329</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>797</v>
+        <v>1310</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -8109,10 +8109,10 @@
         <v>329</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>798</v>
+        <v>1310</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -8132,10 +8132,10 @@
         <v>329</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>799</v>
+        <v>1310</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -8155,10 +8155,10 @@
         <v>329</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>800</v>
+        <v>1310</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -8178,10 +8178,10 @@
         <v>329</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>801</v>
+        <v>1310</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -8201,10 +8201,10 @@
         <v>329</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>802</v>
+        <v>1310</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -8224,10 +8224,10 @@
         <v>329</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>803</v>
+        <v>1310</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -8247,10 +8247,10 @@
         <v>329</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>804</v>
+        <v>1310</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -8270,10 +8270,10 @@
         <v>329</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>805</v>
+        <v>1310</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -8293,10 +8293,10 @@
         <v>329</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>806</v>
+        <v>1310</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -8316,10 +8316,10 @@
         <v>329</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>807</v>
+        <v>1310</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -8339,10 +8339,10 @@
         <v>329</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>808</v>
+        <v>1310</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -8362,10 +8362,10 @@
         <v>329</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>809</v>
+        <v>1310</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -8385,10 +8385,10 @@
         <v>329</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>810</v>
+        <v>1310</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -8408,10 +8408,10 @@
         <v>329</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>811</v>
+        <v>1310</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -8431,10 +8431,10 @@
         <v>329</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>812</v>
+        <v>1310</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -8454,10 +8454,10 @@
         <v>329</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>813</v>
+        <v>1310</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -8477,10 +8477,10 @@
         <v>329</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>814</v>
+        <v>1310</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -8500,10 +8500,10 @@
         <v>329</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>815</v>
+        <v>1310</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -8523,10 +8523,10 @@
         <v>329</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>816</v>
+        <v>1310</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -8546,10 +8546,10 @@
         <v>329</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>817</v>
+        <v>1310</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -8569,10 +8569,10 @@
         <v>329</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>818</v>
+        <v>1310</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -8592,10 +8592,10 @@
         <v>329</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>819</v>
+        <v>1310</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -8615,10 +8615,10 @@
         <v>329</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>820</v>
+        <v>1310</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -8638,10 +8638,10 @@
         <v>329</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>821</v>
+        <v>1310</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -8661,10 +8661,10 @@
         <v>329</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>822</v>
+        <v>1310</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -8684,10 +8684,10 @@
         <v>329</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>823</v>
+        <v>1310</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -8707,10 +8707,10 @@
         <v>329</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>824</v>
+        <v>1310</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -8730,10 +8730,10 @@
         <v>329</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>825</v>
+        <v>1310</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -8744,7 +8744,7 @@
         <v>826</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D191" s="1">
         <v>1005541</v>
@@ -8753,10 +8753,10 @@
         <v>329</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>826</v>
+        <v>1310</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -8776,10 +8776,10 @@
         <v>329</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>827</v>
+        <v>1310</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -8799,10 +8799,10 @@
         <v>329</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>828</v>
+        <v>1310</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -8822,10 +8822,10 @@
         <v>329</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>829</v>
+        <v>1310</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -8845,10 +8845,10 @@
         <v>329</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>830</v>
+        <v>1310</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -8868,10 +8868,10 @@
         <v>329</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>831</v>
+        <v>1310</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -8891,10 +8891,10 @@
         <v>329</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>832</v>
+        <v>1310</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -8914,10 +8914,10 @@
         <v>329</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>833</v>
+        <v>1310</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -8937,10 +8937,10 @@
         <v>329</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>834</v>
+        <v>1310</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -8960,10 +8960,10 @@
         <v>329</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>835</v>
+        <v>1310</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -8983,10 +8983,10 @@
         <v>329</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>836</v>
+        <v>1310</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -9006,10 +9006,10 @@
         <v>329</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>837</v>
+        <v>1310</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -9029,10 +9029,10 @@
         <v>329</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>838</v>
+        <v>1310</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -9052,10 +9052,10 @@
         <v>329</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>839</v>
+        <v>1310</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -9066,7 +9066,7 @@
         <v>840</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D205" s="1">
         <v>1005541</v>
@@ -9075,10 +9075,10 @@
         <v>329</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>840</v>
+        <v>1310</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -9098,10 +9098,10 @@
         <v>329</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>841</v>
+        <v>1310</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -9121,10 +9121,10 @@
         <v>329</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>842</v>
+        <v>1310</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -9144,10 +9144,10 @@
         <v>329</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>843</v>
+        <v>1310</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -9167,10 +9167,10 @@
         <v>329</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>844</v>
+        <v>1310</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -9190,10 +9190,10 @@
         <v>329</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>845</v>
+        <v>1310</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -9213,10 +9213,10 @@
         <v>329</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>846</v>
+        <v>1310</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -9236,10 +9236,10 @@
         <v>329</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>847</v>
+        <v>1310</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -9259,10 +9259,10 @@
         <v>329</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>848</v>
+        <v>1310</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -9282,10 +9282,10 @@
         <v>329</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>849</v>
+        <v>1310</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -9305,10 +9305,10 @@
         <v>329</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>850</v>
+        <v>1310</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -9328,10 +9328,10 @@
         <v>329</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>851</v>
+        <v>1310</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -9342,7 +9342,7 @@
         <v>852</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D217" s="1">
         <v>1005541</v>
@@ -9351,10 +9351,10 @@
         <v>329</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>852</v>
+        <v>1310</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -9374,10 +9374,10 @@
         <v>329</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>853</v>
+        <v>1310</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -9397,10 +9397,10 @@
         <v>329</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>854</v>
+        <v>1310</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -9420,10 +9420,10 @@
         <v>409</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>855</v>
+        <v>1310</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -9443,10 +9443,10 @@
         <v>409</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>856</v>
+        <v>1310</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -9466,10 +9466,10 @@
         <v>409</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>857</v>
+        <v>1310</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -9489,10 +9489,10 @@
         <v>409</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>858</v>
+        <v>1310</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -9512,10 +9512,10 @@
         <v>409</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>859</v>
+        <v>1310</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -9535,10 +9535,10 @@
         <v>409</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>860</v>
+        <v>1310</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -9558,10 +9558,10 @@
         <v>409</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>861</v>
+        <v>1310</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -9581,10 +9581,10 @@
         <v>409</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>862</v>
+        <v>1310</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -9604,10 +9604,10 @@
         <v>409</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>863</v>
+        <v>1310</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -9627,10 +9627,10 @@
         <v>409</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>864</v>
+        <v>1310</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -9650,10 +9650,10 @@
         <v>409</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>865</v>
+        <v>1310</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -9673,10 +9673,10 @@
         <v>409</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>866</v>
+        <v>1310</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -9696,10 +9696,10 @@
         <v>409</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>867</v>
+        <v>1310</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -9719,10 +9719,10 @@
         <v>409</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>868</v>
+        <v>1310</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -9742,10 +9742,10 @@
         <v>409</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>869</v>
+        <v>1310</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -9765,10 +9765,10 @@
         <v>409</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>870</v>
+        <v>1310</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -9779,7 +9779,7 @@
         <v>871</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D236" s="1">
         <v>1006121</v>
@@ -9788,10 +9788,10 @@
         <v>409</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>871</v>
+        <v>1310</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -9811,10 +9811,10 @@
         <v>409</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>872</v>
+        <v>1310</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -9825,7 +9825,7 @@
         <v>873</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D238" s="1">
         <v>1006121</v>
@@ -9834,10 +9834,10 @@
         <v>409</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>873</v>
+        <v>1310</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -9857,10 +9857,10 @@
         <v>409</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>874</v>
+        <v>1310</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -9880,10 +9880,10 @@
         <v>409</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>875</v>
+        <v>1310</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -9903,10 +9903,10 @@
         <v>409</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>876</v>
+        <v>1310</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -9926,10 +9926,10 @@
         <v>409</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>877</v>
+        <v>1310</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -9949,10 +9949,10 @@
         <v>409</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>878</v>
+        <v>1310</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -9972,10 +9972,10 @@
         <v>409</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>879</v>
+        <v>1310</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -9995,10 +9995,10 @@
         <v>409</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>880</v>
+        <v>1310</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -10018,10 +10018,10 @@
         <v>409</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>881</v>
+        <v>1310</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -10041,10 +10041,10 @@
         <v>409</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>882</v>
+        <v>1310</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -10055,7 +10055,7 @@
         <v>883</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D248" s="1">
         <v>1006121</v>
@@ -10064,10 +10064,10 @@
         <v>409</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>883</v>
+        <v>1310</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
@@ -10087,10 +10087,10 @@
         <v>409</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>884</v>
+        <v>1310</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
@@ -10110,10 +10110,10 @@
         <v>409</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>885</v>
+        <v>1310</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -10133,10 +10133,10 @@
         <v>409</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>886</v>
+        <v>1310</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
@@ -10156,10 +10156,10 @@
         <v>409</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>887</v>
+        <v>1310</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -10170,7 +10170,7 @@
         <v>888</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D253" s="1">
         <v>1006121</v>
@@ -10179,10 +10179,10 @@
         <v>409</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>888</v>
+        <v>1310</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -10202,10 +10202,10 @@
         <v>409</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>889</v>
+        <v>1310</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
@@ -10225,10 +10225,10 @@
         <v>409</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>890</v>
+        <v>1310</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -10248,10 +10248,10 @@
         <v>409</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>891</v>
+        <v>1310</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -10271,10 +10271,10 @@
         <v>409</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>892</v>
+        <v>1310</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -10294,10 +10294,10 @@
         <v>409</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>893</v>
+        <v>1310</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -10317,10 +10317,10 @@
         <v>409</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>894</v>
+        <v>1310</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
@@ -10340,10 +10340,10 @@
         <v>409</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>895</v>
+        <v>1310</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -10363,10 +10363,10 @@
         <v>409</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>896</v>
+        <v>1310</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -10386,10 +10386,10 @@
         <v>636</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>897</v>
+        <v>1310</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -10409,10 +10409,10 @@
         <v>636</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>898</v>
+        <v>1310</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -10432,10 +10432,10 @@
         <v>636</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>899</v>
+        <v>1310</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -10455,10 +10455,10 @@
         <v>636</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>900</v>
+        <v>1310</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -10478,10 +10478,10 @@
         <v>636</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>901</v>
+        <v>1310</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -10501,10 +10501,10 @@
         <v>636</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>902</v>
+        <v>1310</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
@@ -10524,10 +10524,10 @@
         <v>636</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>903</v>
+        <v>1310</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -10547,10 +10547,10 @@
         <v>636</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>904</v>
+        <v>1310</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -10570,10 +10570,10 @@
         <v>636</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>905</v>
+        <v>1310</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -10593,10 +10593,10 @@
         <v>636</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>906</v>
+        <v>1310</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
@@ -10616,10 +10616,10 @@
         <v>636</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>907</v>
+        <v>1310</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
@@ -10639,10 +10639,10 @@
         <v>636</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>908</v>
+        <v>1310</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -10662,10 +10662,10 @@
         <v>636</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>909</v>
+        <v>1310</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -10685,10 +10685,10 @@
         <v>636</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>910</v>
+        <v>1310</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -10708,10 +10708,10 @@
         <v>636</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>911</v>
+        <v>1310</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
@@ -10731,10 +10731,10 @@
         <v>636</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>912</v>
+        <v>1310</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
@@ -10754,10 +10754,10 @@
         <v>636</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>913</v>
+        <v>1310</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
@@ -10777,10 +10777,10 @@
         <v>636</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>914</v>
+        <v>1310</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
@@ -10800,10 +10800,10 @@
         <v>636</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>915</v>
+        <v>1310</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
@@ -10823,10 +10823,10 @@
         <v>636</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>916</v>
+        <v>1310</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
@@ -10846,10 +10846,10 @@
         <v>636</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>917</v>
+        <v>1310</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -10869,10 +10869,10 @@
         <v>636</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>918</v>
+        <v>1310</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
@@ -10892,10 +10892,10 @@
         <v>636</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>919</v>
+        <v>1310</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
@@ -10915,10 +10915,10 @@
         <v>636</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>920</v>
+        <v>1310</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
@@ -10929,7 +10929,7 @@
         <v>921</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D286" s="1">
         <v>1007523</v>
@@ -10938,10 +10938,10 @@
         <v>636</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>921</v>
+        <v>1310</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
@@ -10961,10 +10961,10 @@
         <v>636</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>922</v>
+        <v>1310</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
@@ -10984,10 +10984,10 @@
         <v>636</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>923</v>
+        <v>1310</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
@@ -10998,7 +10998,7 @@
         <v>924</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D289" s="1">
         <v>1007523</v>
@@ -11007,10 +11007,10 @@
         <v>636</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>924</v>
+        <v>1310</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
@@ -11030,10 +11030,10 @@
         <v>636</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>925</v>
+        <v>1310</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
@@ -11053,10 +11053,10 @@
         <v>636</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>926</v>
+        <v>1310</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
@@ -11076,10 +11076,10 @@
         <v>636</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>927</v>
+        <v>1310</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
@@ -11099,10 +11099,10 @@
         <v>636</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>928</v>
+        <v>1310</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
@@ -11122,10 +11122,10 @@
         <v>636</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>929</v>
+        <v>1310</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
@@ -11145,10 +11145,10 @@
         <v>636</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>930</v>
+        <v>1310</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
@@ -11168,10 +11168,10 @@
         <v>636</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>931</v>
+        <v>1310</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
@@ -11191,10 +11191,10 @@
         <v>636</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>932</v>
+        <v>1310</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
@@ -11214,10 +11214,10 @@
         <v>636</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>933</v>
+        <v>1310</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
@@ -11237,10 +11237,10 @@
         <v>636</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>934</v>
+        <v>1310</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
@@ -11260,10 +11260,10 @@
         <v>636</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>935</v>
+        <v>1310</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
@@ -11283,10 +11283,10 @@
         <v>636</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>936</v>
+        <v>1310</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
@@ -11306,10 +11306,10 @@
         <v>636</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>937</v>
+        <v>1310</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
@@ -11329,10 +11329,10 @@
         <v>636</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>938</v>
+        <v>1310</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
@@ -11352,10 +11352,10 @@
         <v>636</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>939</v>
+        <v>1310</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
@@ -11375,10 +11375,10 @@
         <v>636</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>940</v>
+        <v>1310</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
@@ -11398,10 +11398,10 @@
         <v>636</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>941</v>
+        <v>1310</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
@@ -11421,10 +11421,10 @@
         <v>636</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>942</v>
+        <v>1310</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
@@ -11444,10 +11444,10 @@
         <v>636</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>943</v>
+        <v>1310</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
@@ -11467,10 +11467,10 @@
         <v>636</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>944</v>
+        <v>1310</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
@@ -11490,10 +11490,10 @@
         <v>636</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>945</v>
+        <v>1310</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
@@ -11513,10 +11513,10 @@
         <v>636</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>946</v>
+        <v>1310</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
@@ -11536,10 +11536,10 @@
         <v>636</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>947</v>
+        <v>1310</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
@@ -11559,10 +11559,10 @@
         <v>636</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>948</v>
+        <v>1310</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
@@ -11582,10 +11582,10 @@
         <v>636</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>949</v>
+        <v>1310</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
@@ -11605,10 +11605,10 @@
         <v>636</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>950</v>
+        <v>1310</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
@@ -11628,10 +11628,10 @@
         <v>636</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>951</v>
+        <v>1310</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
@@ -11651,10 +11651,10 @@
         <v>636</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>952</v>
+        <v>1310</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
@@ -11674,10 +11674,10 @@
         <v>636</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>953</v>
+        <v>1310</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
@@ -11697,10 +11697,10 @@
         <v>636</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>954</v>
+        <v>1310</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
@@ -11720,10 +11720,10 @@
         <v>636</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>955</v>
+        <v>1310</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
@@ -11743,10 +11743,10 @@
         <v>636</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>956</v>
+        <v>1310</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
@@ -11766,10 +11766,10 @@
         <v>636</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>957</v>
+        <v>1310</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
@@ -11789,10 +11789,10 @@
         <v>636</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>958</v>
+        <v>1310</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
@@ -11812,10 +11812,10 @@
         <v>636</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>959</v>
+        <v>1310</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
@@ -11835,10 +11835,10 @@
         <v>636</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>960</v>
+        <v>1310</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
@@ -11858,10 +11858,10 @@
         <v>636</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>961</v>
+        <v>1310</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
@@ -11872,7 +11872,7 @@
         <v>962</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D327" s="1">
         <v>1008162</v>
@@ -11881,10 +11881,10 @@
         <v>636</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>962</v>
+        <v>1310</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
@@ -11904,10 +11904,10 @@
         <v>636</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>963</v>
+        <v>1310</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
@@ -11927,10 +11927,10 @@
         <v>636</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>964</v>
+        <v>1310</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
@@ -11950,10 +11950,10 @@
         <v>636</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>965</v>
+        <v>1310</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
@@ -11973,10 +11973,10 @@
         <v>636</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>966</v>
+        <v>1310</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
@@ -11996,10 +11996,10 @@
         <v>636</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>967</v>
+        <v>1310</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
@@ -12019,10 +12019,10 @@
         <v>636</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>968</v>
+        <v>1310</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
@@ -12042,10 +12042,10 @@
         <v>636</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>969</v>
+        <v>1310</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
@@ -12065,10 +12065,10 @@
         <v>636</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>970</v>
+        <v>1310</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
@@ -12088,10 +12088,10 @@
         <v>636</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>971</v>
+        <v>1310</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
@@ -12111,10 +12111,10 @@
         <v>636</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>972</v>
+        <v>1310</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
@@ -12134,10 +12134,10 @@
         <v>636</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>973</v>
+        <v>1310</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
@@ -12157,10 +12157,10 @@
         <v>636</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>974</v>
+        <v>1310</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
@@ -12180,10 +12180,10 @@
         <v>636</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>975</v>
+        <v>1310</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
@@ -12203,10 +12203,10 @@
         <v>636</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>976</v>
+        <v>1310</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
@@ -12226,10 +12226,10 @@
         <v>636</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>977</v>
+        <v>1310</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
@@ -12249,10 +12249,10 @@
         <v>636</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>978</v>
+        <v>1310</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
@@ -12272,10 +12272,10 @@
         <v>636</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>979</v>
+        <v>1310</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
@@ -12295,10 +12295,10 @@
         <v>636</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>980</v>
+        <v>1310</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
@@ -12318,10 +12318,10 @@
         <v>636</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>981</v>
+        <v>1310</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
@@ -12341,10 +12341,10 @@
         <v>636</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>982</v>
+        <v>1310</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
@@ -12364,10 +12364,10 @@
         <v>636</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>983</v>
+        <v>1310</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
@@ -12387,10 +12387,10 @@
         <v>636</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>984</v>
+        <v>1310</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
@@ -12401,7 +12401,7 @@
         <v>985</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D350" s="1">
         <v>1008162</v>
@@ -12410,10 +12410,10 @@
         <v>636</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>985</v>
+        <v>1310</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
@@ -12433,10 +12433,10 @@
         <v>636</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>986</v>
+        <v>1310</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
@@ -12456,10 +12456,10 @@
         <v>636</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>987</v>
+        <v>1310</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
@@ -12479,10 +12479,10 @@
         <v>636</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>988</v>
+        <v>1310</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
@@ -12502,10 +12502,10 @@
         <v>636</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>989</v>
+        <v>1310</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
@@ -12525,10 +12525,10 @@
         <v>636</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>990</v>
+        <v>1310</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
@@ -12548,10 +12548,10 @@
         <v>636</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>991</v>
+        <v>1310</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
@@ -12571,10 +12571,10 @@
         <v>636</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>992</v>
+        <v>1310</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
@@ -12594,10 +12594,10 @@
         <v>636</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>993</v>
+        <v>1310</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
@@ -12617,10 +12617,10 @@
         <v>636</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>994</v>
+        <v>1310</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
@@ -12640,10 +12640,10 @@
         <v>636</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>995</v>
+        <v>1310</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
@@ -12663,10 +12663,10 @@
         <v>636</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>996</v>
+        <v>1310</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
@@ -12686,10 +12686,10 @@
         <v>636</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>997</v>
+        <v>1310</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
@@ -12709,10 +12709,10 @@
         <v>636</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>998</v>
+        <v>1310</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
@@ -12732,10 +12732,10 @@
         <v>636</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>999</v>
+        <v>1310</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
@@ -12755,10 +12755,10 @@
         <v>636</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1000</v>
+        <v>1310</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
@@ -12778,10 +12778,10 @@
         <v>636</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1001</v>
+        <v>1310</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
@@ -12801,10 +12801,10 @@
         <v>636</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1002</v>
+        <v>1310</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
@@ -12824,10 +12824,10 @@
         <v>636</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1003</v>
+        <v>1310</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
@@ -12847,10 +12847,10 @@
         <v>636</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1004</v>
+        <v>1310</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
@@ -12870,10 +12870,10 @@
         <v>636</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>1005</v>
+        <v>1310</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
@@ -12893,10 +12893,10 @@
         <v>636</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>1006</v>
+        <v>1310</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
@@ -12916,10 +12916,10 @@
         <v>636</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>1007</v>
+        <v>1310</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
@@ -12939,10 +12939,10 @@
         <v>636</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>1008</v>
+        <v>1310</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
@@ -12962,10 +12962,10 @@
         <v>636</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>1009</v>
+        <v>1310</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
@@ -12976,7 +12976,7 @@
         <v>1010</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D375" s="1">
         <v>1009684</v>
@@ -12985,10 +12985,10 @@
         <v>636</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1010</v>
+        <v>1310</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
@@ -13008,10 +13008,10 @@
         <v>636</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
@@ -13031,10 +13031,10 @@
         <v>636</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>1012</v>
+        <v>1310</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
@@ -13054,10 +13054,10 @@
         <v>636</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>1013</v>
+        <v>1310</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
@@ -13077,10 +13077,10 @@
         <v>636</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1014</v>
+        <v>1310</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
@@ -13091,7 +13091,7 @@
         <v>1015</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D380" s="1">
         <v>1009684</v>
@@ -13100,10 +13100,10 @@
         <v>636</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1015</v>
+        <v>1310</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
@@ -13123,10 +13123,10 @@
         <v>636</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1016</v>
+        <v>1310</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
@@ -13146,10 +13146,10 @@
         <v>636</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1017</v>
+        <v>1310</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
@@ -13169,10 +13169,10 @@
         <v>636</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1018</v>
+        <v>1310</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
@@ -13192,10 +13192,10 @@
         <v>636</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1019</v>
+        <v>1310</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
@@ -13215,10 +13215,10 @@
         <v>636</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1020</v>
+        <v>1310</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
@@ -13238,10 +13238,10 @@
         <v>636</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1021</v>
+        <v>1310</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
@@ -13261,10 +13261,10 @@
         <v>636</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1022</v>
+        <v>1310</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
@@ -13284,10 +13284,10 @@
         <v>636</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>1023</v>
+        <v>1310</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
@@ -13307,10 +13307,10 @@
         <v>636</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>1024</v>
+        <v>1310</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
@@ -13330,10 +13330,10 @@
         <v>636</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1025</v>
+        <v>1310</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
@@ -13353,10 +13353,10 @@
         <v>636</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1026</v>
+        <v>1310</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
@@ -13376,10 +13376,10 @@
         <v>636</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1027</v>
+        <v>1310</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
@@ -13399,10 +13399,10 @@
         <v>636</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1028</v>
+        <v>1310</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
@@ -13422,10 +13422,10 @@
         <v>636</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1029</v>
+        <v>1310</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
@@ -13436,7 +13436,7 @@
         <v>1030</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D395" s="1">
         <v>1009684</v>
@@ -13445,10 +13445,10 @@
         <v>636</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1030</v>
+        <v>1310</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
@@ -13468,10 +13468,10 @@
         <v>51</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1031</v>
+        <v>1310</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
@@ -13491,10 +13491,10 @@
         <v>51</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>1032</v>
+        <v>1310</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
@@ -13514,10 +13514,10 @@
         <v>51</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1033</v>
+        <v>1310</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
@@ -13537,10 +13537,10 @@
         <v>51</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1034</v>
+        <v>1310</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
@@ -13560,10 +13560,10 @@
         <v>51</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1035</v>
+        <v>1310</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
@@ -13583,10 +13583,10 @@
         <v>51</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1036</v>
+        <v>1310</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
@@ -13606,10 +13606,10 @@
         <v>51</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1037</v>
+        <v>1310</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
@@ -13629,10 +13629,10 @@
         <v>51</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>1038</v>
+        <v>1310</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
@@ -13652,10 +13652,10 @@
         <v>51</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1039</v>
+        <v>1310</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
@@ -13675,10 +13675,10 @@
         <v>51</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1040</v>
+        <v>1310</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
@@ -13698,10 +13698,10 @@
         <v>51</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1041</v>
+        <v>1310</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
@@ -13721,10 +13721,10 @@
         <v>51</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>1042</v>
+        <v>1310</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
@@ -13744,10 +13744,10 @@
         <v>51</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1043</v>
+        <v>1310</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
@@ -13767,10 +13767,10 @@
         <v>51</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1044</v>
+        <v>1310</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
@@ -13790,10 +13790,10 @@
         <v>51</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>1045</v>
+        <v>1310</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
@@ -13813,10 +13813,10 @@
         <v>51</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1046</v>
+        <v>1310</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
@@ -13836,10 +13836,10 @@
         <v>51</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>1047</v>
+        <v>1310</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
@@ -13859,10 +13859,10 @@
         <v>51</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1048</v>
+        <v>1310</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
@@ -13882,10 +13882,10 @@
         <v>51</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>1049</v>
+        <v>1310</v>
       </c>
       <c r="G414" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
@@ -13905,10 +13905,10 @@
         <v>51</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>1050</v>
+        <v>1310</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
@@ -13928,10 +13928,10 @@
         <v>51</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>1051</v>
+        <v>1310</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
@@ -13942,7 +13942,7 @@
         <v>1052</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D417" s="1">
         <v>1010181</v>
@@ -13951,10 +13951,10 @@
         <v>51</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>1052</v>
+        <v>1310</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
@@ -13974,10 +13974,10 @@
         <v>51</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>1053</v>
+        <v>1310</v>
       </c>
       <c r="G418" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
@@ -13997,10 +13997,10 @@
         <v>51</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>1054</v>
+        <v>1310</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
@@ -14020,10 +14020,10 @@
         <v>51</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1055</v>
+        <v>1310</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
@@ -14043,10 +14043,10 @@
         <v>51</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1056</v>
+        <v>1310</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.2">
@@ -14066,10 +14066,10 @@
         <v>51</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>1057</v>
+        <v>1310</v>
       </c>
       <c r="G422" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
@@ -14089,10 +14089,10 @@
         <v>51</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1058</v>
+        <v>1310</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
@@ -14112,10 +14112,10 @@
         <v>51</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1059</v>
+        <v>1310</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
@@ -14135,10 +14135,10 @@
         <v>51</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1060</v>
+        <v>1310</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
@@ -14158,10 +14158,10 @@
         <v>51</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>1061</v>
+        <v>1310</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
@@ -14181,10 +14181,10 @@
         <v>51</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1062</v>
+        <v>1310</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
@@ -14204,10 +14204,10 @@
         <v>51</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>1063</v>
+        <v>1310</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
@@ -14227,10 +14227,10 @@
         <v>51</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>1064</v>
+        <v>1310</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
@@ -14250,10 +14250,10 @@
         <v>51</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>1065</v>
+        <v>1310</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
@@ -14273,10 +14273,10 @@
         <v>51</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>1066</v>
+        <v>1310</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.2">
@@ -14296,10 +14296,10 @@
         <v>51</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>1067</v>
+        <v>1310</v>
       </c>
       <c r="G432" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.2">
@@ -14319,10 +14319,10 @@
         <v>51</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>1068</v>
+        <v>1310</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
@@ -14342,10 +14342,10 @@
         <v>51</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>1069</v>
+        <v>1310</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.2">
@@ -14365,10 +14365,10 @@
         <v>51</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1070</v>
+        <v>1310</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.2">
@@ -14388,10 +14388,10 @@
         <v>51</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1071</v>
+        <v>1310</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
@@ -14411,10 +14411,10 @@
         <v>51</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>1072</v>
+        <v>1310</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.2">
@@ -14434,10 +14434,10 @@
         <v>51</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1073</v>
+        <v>1310</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
@@ -14457,10 +14457,10 @@
         <v>51</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1074</v>
+        <v>1310</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.2">
@@ -14480,10 +14480,10 @@
         <v>51</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1075</v>
+        <v>1310</v>
       </c>
       <c r="G440" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.2">
@@ -14503,10 +14503,10 @@
         <v>51</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>1076</v>
+        <v>1310</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.2">
@@ -14526,10 +14526,10 @@
         <v>51</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1077</v>
+        <v>1310</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
@@ -14549,10 +14549,10 @@
         <v>51</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>1078</v>
+        <v>1310</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.2">
@@ -14572,10 +14572,10 @@
         <v>51</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>1079</v>
+        <v>1310</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
@@ -14595,10 +14595,10 @@
         <v>51</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1080</v>
+        <v>1310</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
@@ -14618,10 +14618,10 @@
         <v>409</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>1081</v>
+        <v>1310</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.2">
@@ -14641,10 +14641,10 @@
         <v>409</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>1082</v>
+        <v>1310</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.2">
@@ -14664,10 +14664,10 @@
         <v>409</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>1083</v>
+        <v>1310</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.2">
@@ -14687,10 +14687,10 @@
         <v>409</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>1084</v>
+        <v>1310</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
@@ -14710,10 +14710,10 @@
         <v>409</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>1085</v>
+        <v>1310</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.2">
@@ -14733,10 +14733,10 @@
         <v>409</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>1086</v>
+        <v>1310</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.2">
@@ -14756,10 +14756,10 @@
         <v>409</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>1087</v>
+        <v>1310</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.2">
@@ -14779,10 +14779,10 @@
         <v>409</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>1088</v>
+        <v>1310</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.2">
@@ -14802,10 +14802,10 @@
         <v>409</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>1089</v>
+        <v>1310</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.2">
@@ -14825,10 +14825,10 @@
         <v>409</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>1090</v>
+        <v>1310</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.2">
@@ -14848,10 +14848,10 @@
         <v>409</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>1091</v>
+        <v>1310</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.2">
@@ -14871,10 +14871,10 @@
         <v>409</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>1092</v>
+        <v>1310</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.2">
@@ -14894,10 +14894,10 @@
         <v>409</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>1093</v>
+        <v>1310</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.2">
@@ -14917,10 +14917,10 @@
         <v>409</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>1094</v>
+        <v>1310</v>
       </c>
       <c r="G459" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.2">
@@ -14940,10 +14940,10 @@
         <v>409</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>1095</v>
+        <v>1310</v>
       </c>
       <c r="G460" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.2">
@@ -14963,10 +14963,10 @@
         <v>409</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>1096</v>
+        <v>1310</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
@@ -14986,10 +14986,10 @@
         <v>409</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>1097</v>
+        <v>1310</v>
       </c>
       <c r="G462" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.2">
@@ -15009,10 +15009,10 @@
         <v>409</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>1098</v>
+        <v>1310</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.2">
@@ -15032,10 +15032,10 @@
         <v>409</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>1099</v>
+        <v>1310</v>
       </c>
       <c r="G464" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.2">
@@ -15055,10 +15055,10 @@
         <v>409</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>1100</v>
+        <v>1310</v>
       </c>
       <c r="G465" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.2">
@@ -15078,10 +15078,10 @@
         <v>409</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>1101</v>
+        <v>1310</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.2">
@@ -15101,10 +15101,10 @@
         <v>409</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>1102</v>
+        <v>1310</v>
       </c>
       <c r="G467" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.2">
@@ -15124,10 +15124,10 @@
         <v>409</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>1103</v>
+        <v>1310</v>
       </c>
       <c r="G468" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.2">
@@ -15147,10 +15147,10 @@
         <v>409</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>1104</v>
+        <v>1310</v>
       </c>
       <c r="G469" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.2">
@@ -15170,10 +15170,10 @@
         <v>409</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>1105</v>
+        <v>1310</v>
       </c>
       <c r="G470" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.2">
@@ -15193,10 +15193,10 @@
         <v>409</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>1106</v>
+        <v>1310</v>
       </c>
       <c r="G471" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.2">
@@ -15216,10 +15216,10 @@
         <v>409</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>1107</v>
+        <v>1310</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.2">
@@ -15239,10 +15239,10 @@
         <v>409</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>1108</v>
+        <v>1310</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.2">
@@ -15262,10 +15262,10 @@
         <v>409</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>1109</v>
+        <v>1310</v>
       </c>
       <c r="G474" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.2">
@@ -15285,10 +15285,10 @@
         <v>409</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>1110</v>
+        <v>1310</v>
       </c>
       <c r="G475" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.2">
@@ -15308,10 +15308,10 @@
         <v>409</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>1111</v>
+        <v>1310</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.2">
@@ -15331,10 +15331,10 @@
         <v>409</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>1112</v>
+        <v>1310</v>
       </c>
       <c r="G477" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.2">
@@ -15354,10 +15354,10 @@
         <v>409</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>1113</v>
+        <v>1310</v>
       </c>
       <c r="G478" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.2">
@@ -15377,10 +15377,10 @@
         <v>409</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>1114</v>
+        <v>1310</v>
       </c>
       <c r="G479" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.2">
@@ -15400,10 +15400,10 @@
         <v>409</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>1115</v>
+        <v>1310</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.2">
@@ -15423,10 +15423,10 @@
         <v>409</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>1116</v>
+        <v>1310</v>
       </c>
       <c r="G481" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.2">
@@ -15446,10 +15446,10 @@
         <v>409</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>1117</v>
+        <v>1310</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.2">
@@ -15469,10 +15469,10 @@
         <v>409</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>1118</v>
+        <v>1310</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.2">
@@ -15492,10 +15492,10 @@
         <v>409</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1119</v>
+        <v>1310</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.2">
@@ -15515,10 +15515,10 @@
         <v>409</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>1120</v>
+        <v>1310</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.2">
@@ -15538,10 +15538,10 @@
         <v>409</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>1121</v>
+        <v>1310</v>
       </c>
       <c r="G486" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.2">
@@ -15561,10 +15561,10 @@
         <v>329</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>1122</v>
+        <v>1310</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.2">
@@ -15584,10 +15584,10 @@
         <v>329</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1123</v>
+        <v>1310</v>
       </c>
       <c r="G488" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.2">
@@ -15607,10 +15607,10 @@
         <v>329</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1124</v>
+        <v>1310</v>
       </c>
       <c r="G489" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.2">
@@ -15630,10 +15630,10 @@
         <v>329</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>1125</v>
+        <v>1310</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.2">
@@ -15653,10 +15653,10 @@
         <v>329</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>1126</v>
+        <v>1310</v>
       </c>
       <c r="G491" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.2">
@@ -15676,10 +15676,10 @@
         <v>329</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>1127</v>
+        <v>1310</v>
       </c>
       <c r="G492" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.2">
@@ -15699,10 +15699,10 @@
         <v>329</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1128</v>
+        <v>1310</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.2">
@@ -15722,10 +15722,10 @@
         <v>329</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>1129</v>
+        <v>1310</v>
       </c>
       <c r="G494" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.2">
@@ -15745,10 +15745,10 @@
         <v>329</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>1130</v>
+        <v>1310</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.2">
@@ -15768,10 +15768,10 @@
         <v>329</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>1131</v>
+        <v>1310</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.2">
@@ -15791,10 +15791,10 @@
         <v>329</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1132</v>
+        <v>1310</v>
       </c>
       <c r="G497" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.2">
@@ -15814,10 +15814,10 @@
         <v>329</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>1133</v>
+        <v>1310</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.2">
@@ -15837,10 +15837,10 @@
         <v>329</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1134</v>
+        <v>1310</v>
       </c>
       <c r="G499" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.2">
@@ -15860,10 +15860,10 @@
         <v>329</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>1135</v>
+        <v>1310</v>
       </c>
       <c r="G500" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.2">
@@ -15883,10 +15883,10 @@
         <v>329</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>1136</v>
+        <v>1310</v>
       </c>
       <c r="G501" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.2">
@@ -15906,10 +15906,10 @@
         <v>329</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1137</v>
+        <v>1310</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
@@ -15929,10 +15929,10 @@
         <v>329</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>1138</v>
+        <v>1310</v>
       </c>
       <c r="G503" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.2">
@@ -15952,10 +15952,10 @@
         <v>329</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>1139</v>
+        <v>1310</v>
       </c>
       <c r="G504" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.2">
@@ -15975,10 +15975,10 @@
         <v>329</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>1140</v>
+        <v>1310</v>
       </c>
       <c r="G505" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.2">
@@ -15998,10 +15998,10 @@
         <v>329</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>1141</v>
+        <v>1310</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.2">
@@ -16021,10 +16021,10 @@
         <v>329</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>1142</v>
+        <v>1310</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.2">
@@ -16044,10 +16044,10 @@
         <v>329</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>1143</v>
+        <v>1310</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.2">
@@ -16067,10 +16067,10 @@
         <v>329</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>1144</v>
+        <v>1310</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.2">
@@ -16090,10 +16090,10 @@
         <v>329</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1145</v>
+        <v>1310</v>
       </c>
       <c r="G510" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.2">
@@ -16113,10 +16113,10 @@
         <v>329</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1146</v>
+        <v>1310</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.2">
@@ -16136,10 +16136,10 @@
         <v>329</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1147</v>
+        <v>1310</v>
       </c>
       <c r="G512" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.2">
@@ -16159,10 +16159,10 @@
         <v>329</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1148</v>
+        <v>1310</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.2">
@@ -16182,10 +16182,10 @@
         <v>329</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1149</v>
+        <v>1310</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.2">
@@ -16205,10 +16205,10 @@
         <v>329</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>1150</v>
+        <v>1310</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.2">
@@ -16228,10 +16228,10 @@
         <v>329</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>1151</v>
+        <v>1310</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.2">
@@ -16251,10 +16251,10 @@
         <v>329</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>1152</v>
+        <v>1310</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.2">
@@ -16274,10 +16274,10 @@
         <v>329</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1153</v>
+        <v>1310</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.2">
@@ -16297,10 +16297,10 @@
         <v>329</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1154</v>
+        <v>1310</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.2">
@@ -16320,10 +16320,10 @@
         <v>329</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1155</v>
+        <v>1310</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.2">
@@ -16343,10 +16343,10 @@
         <v>329</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>1156</v>
+        <v>1310</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.2">
@@ -16366,10 +16366,10 @@
         <v>329</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>1157</v>
+        <v>1310</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.2">
@@ -16389,10 +16389,10 @@
         <v>329</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>1158</v>
+        <v>1310</v>
       </c>
       <c r="G523" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.2">
@@ -16412,10 +16412,10 @@
         <v>329</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>1159</v>
+        <v>1310</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
@@ -16435,10 +16435,10 @@
         <v>329</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>1160</v>
+        <v>1310</v>
       </c>
       <c r="G525" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.2">
@@ -16458,10 +16458,10 @@
         <v>329</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>1161</v>
+        <v>1310</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.2">
@@ -16481,10 +16481,10 @@
         <v>329</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>1162</v>
+        <v>1310</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.2">
@@ -16504,10 +16504,10 @@
         <v>329</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1163</v>
+        <v>1310</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.2">
@@ -16527,10 +16527,10 @@
         <v>329</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1164</v>
+        <v>1310</v>
       </c>
       <c r="G529" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.2">
@@ -16550,10 +16550,10 @@
         <v>329</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1165</v>
+        <v>1310</v>
       </c>
       <c r="G530" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.2">
@@ -16573,10 +16573,10 @@
         <v>329</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>1166</v>
+        <v>1310</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.2">
@@ -16596,10 +16596,10 @@
         <v>329</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1167</v>
+        <v>1310</v>
       </c>
       <c r="G532" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.2">
@@ -16619,10 +16619,10 @@
         <v>329</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>1168</v>
+        <v>1310</v>
       </c>
       <c r="G533" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.2">
@@ -16642,10 +16642,10 @@
         <v>329</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1169</v>
+        <v>1310</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.2">
@@ -16665,10 +16665,10 @@
         <v>329</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>1170</v>
+        <v>1310</v>
       </c>
       <c r="G535" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.2">
@@ -16688,10 +16688,10 @@
         <v>329</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>1171</v>
+        <v>1310</v>
       </c>
       <c r="G536" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.2">
@@ -16711,10 +16711,10 @@
         <v>329</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>1172</v>
+        <v>1310</v>
       </c>
       <c r="G537" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.2">
@@ -16734,10 +16734,10 @@
         <v>329</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>1173</v>
+        <v>1310</v>
       </c>
       <c r="G538" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.2">
@@ -16757,10 +16757,10 @@
         <v>329</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>1174</v>
+        <v>1310</v>
       </c>
       <c r="G539" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.2">
@@ -16780,10 +16780,10 @@
         <v>329</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>1175</v>
+        <v>1310</v>
       </c>
       <c r="G540" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.2">
@@ -16803,10 +16803,10 @@
         <v>329</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>1176</v>
+        <v>1310</v>
       </c>
       <c r="G541" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.2">
@@ -16826,10 +16826,10 @@
         <v>329</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1177</v>
+        <v>1310</v>
       </c>
       <c r="G542" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.2">
@@ -16849,10 +16849,10 @@
         <v>329</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>1178</v>
+        <v>1310</v>
       </c>
       <c r="G543" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.2">
@@ -16872,10 +16872,10 @@
         <v>329</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>1179</v>
+        <v>1310</v>
       </c>
       <c r="G544" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
@@ -16895,10 +16895,10 @@
         <v>329</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1180</v>
+        <v>1310</v>
       </c>
       <c r="G545" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.2">
@@ -16918,10 +16918,10 @@
         <v>329</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>1181</v>
+        <v>1310</v>
       </c>
       <c r="G546" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.2">
@@ -16941,10 +16941,10 @@
         <v>329</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>1182</v>
+        <v>1310</v>
       </c>
       <c r="G547" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.2">
@@ -16964,10 +16964,10 @@
         <v>329</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1183</v>
+        <v>1310</v>
       </c>
       <c r="G548" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.2">
@@ -16987,10 +16987,10 @@
         <v>329</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1184</v>
+        <v>1310</v>
       </c>
       <c r="G549" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.2">
@@ -17010,10 +17010,10 @@
         <v>329</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1185</v>
+        <v>1310</v>
       </c>
       <c r="G550" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.2">
@@ -17033,10 +17033,10 @@
         <v>636</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>1186</v>
+        <v>1310</v>
       </c>
       <c r="G551" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.2">
@@ -17056,10 +17056,10 @@
         <v>636</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>1187</v>
+        <v>1310</v>
       </c>
       <c r="G552" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.2">
@@ -17079,10 +17079,10 @@
         <v>636</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>1188</v>
+        <v>1310</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.2">
@@ -17102,10 +17102,10 @@
         <v>636</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>1189</v>
+        <v>1310</v>
       </c>
       <c r="G554" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.2">
@@ -17125,10 +17125,10 @@
         <v>636</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>1190</v>
+        <v>1310</v>
       </c>
       <c r="G555" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.2">
@@ -17148,10 +17148,10 @@
         <v>636</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>1191</v>
+        <v>1310</v>
       </c>
       <c r="G556" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.2">
@@ -17171,10 +17171,10 @@
         <v>636</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>1192</v>
+        <v>1310</v>
       </c>
       <c r="G557" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.2">
@@ -17194,10 +17194,10 @@
         <v>636</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>1193</v>
+        <v>1310</v>
       </c>
       <c r="G558" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.2">
@@ -17217,10 +17217,10 @@
         <v>636</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>1194</v>
+        <v>1310</v>
       </c>
       <c r="G559" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.2">
@@ -17240,10 +17240,10 @@
         <v>636</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>1195</v>
+        <v>1310</v>
       </c>
       <c r="G560" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
@@ -17263,10 +17263,10 @@
         <v>636</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>1196</v>
+        <v>1310</v>
       </c>
       <c r="G561" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
@@ -17286,10 +17286,10 @@
         <v>636</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>1197</v>
+        <v>1310</v>
       </c>
       <c r="G562" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
@@ -17309,10 +17309,10 @@
         <v>636</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>1198</v>
+        <v>1310</v>
       </c>
       <c r="G563" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
@@ -17332,10 +17332,10 @@
         <v>636</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>1199</v>
+        <v>1310</v>
       </c>
       <c r="G564" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
@@ -17355,10 +17355,10 @@
         <v>636</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>1200</v>
+        <v>1310</v>
       </c>
       <c r="G565" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.2">
@@ -17378,10 +17378,10 @@
         <v>636</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>1201</v>
+        <v>1310</v>
       </c>
       <c r="G566" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.2">
@@ -17401,10 +17401,10 @@
         <v>636</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>1202</v>
+        <v>1310</v>
       </c>
       <c r="G567" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.2">
@@ -17424,10 +17424,10 @@
         <v>636</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>1203</v>
+        <v>1310</v>
       </c>
       <c r="G568" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.2">
@@ -17447,10 +17447,10 @@
         <v>636</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>1204</v>
+        <v>1310</v>
       </c>
       <c r="G569" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.2">
@@ -17470,10 +17470,10 @@
         <v>636</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>1205</v>
+        <v>1310</v>
       </c>
       <c r="G570" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.2">
@@ -17493,10 +17493,10 @@
         <v>636</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>1206</v>
+        <v>1310</v>
       </c>
       <c r="G571" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.2">
@@ -17516,10 +17516,10 @@
         <v>636</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>1207</v>
+        <v>1310</v>
       </c>
       <c r="G572" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
@@ -17539,10 +17539,10 @@
         <v>636</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>1208</v>
+        <v>1310</v>
       </c>
       <c r="G573" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.2">
@@ -17562,10 +17562,10 @@
         <v>636</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>1209</v>
+        <v>1310</v>
       </c>
       <c r="G574" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
@@ -17585,10 +17585,10 @@
         <v>636</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>1210</v>
+        <v>1310</v>
       </c>
       <c r="G575" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.2">
@@ -17608,10 +17608,10 @@
         <v>636</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>1211</v>
+        <v>1310</v>
       </c>
       <c r="G576" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
@@ -17631,10 +17631,10 @@
         <v>636</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>1212</v>
+        <v>1310</v>
       </c>
       <c r="G577" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.2">
@@ -17654,10 +17654,10 @@
         <v>636</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>1213</v>
+        <v>1310</v>
       </c>
       <c r="G578" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
@@ -17677,10 +17677,10 @@
         <v>636</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>1214</v>
+        <v>1310</v>
       </c>
       <c r="G579" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.2">
@@ -17700,10 +17700,10 @@
         <v>636</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>1215</v>
+        <v>1310</v>
       </c>
       <c r="G580" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.2">
@@ -17723,10 +17723,10 @@
         <v>636</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1216</v>
+        <v>1310</v>
       </c>
       <c r="G581" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
@@ -17746,10 +17746,10 @@
         <v>636</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>1217</v>
+        <v>1310</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.2">
@@ -17769,10 +17769,10 @@
         <v>636</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>1218</v>
+        <v>1310</v>
       </c>
       <c r="G583" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.2">
@@ -17792,10 +17792,10 @@
         <v>636</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>1219</v>
+        <v>1310</v>
       </c>
       <c r="G584" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
@@ -17815,10 +17815,10 @@
         <v>636</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>1220</v>
+        <v>1310</v>
       </c>
       <c r="G585" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.2">
@@ -17829,7 +17829,7 @@
         <v>1221</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D586" s="1">
         <v>1016590</v>
@@ -17838,10 +17838,10 @@
         <v>636</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>1221</v>
+        <v>1310</v>
       </c>
       <c r="G586" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
@@ -17861,10 +17861,10 @@
         <v>636</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>1222</v>
+        <v>1310</v>
       </c>
       <c r="G587" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.2">
@@ -17884,10 +17884,10 @@
         <v>636</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>1223</v>
+        <v>1310</v>
       </c>
       <c r="G588" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.2">
@@ -17907,10 +17907,10 @@
         <v>636</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>1224</v>
+        <v>1310</v>
       </c>
       <c r="G589" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.2">
@@ -17930,10 +17930,10 @@
         <v>636</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>1225</v>
+        <v>1310</v>
       </c>
       <c r="G590" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
@@ -17953,10 +17953,10 @@
         <v>636</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>1226</v>
+        <v>1310</v>
       </c>
       <c r="G591" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
@@ -17976,10 +17976,10 @@
         <v>636</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>1227</v>
+        <v>1310</v>
       </c>
       <c r="G592" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.2">
@@ -17999,10 +17999,10 @@
         <v>636</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>1228</v>
+        <v>1310</v>
       </c>
       <c r="G593" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.2">
@@ -18022,10 +18022,10 @@
         <v>636</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>1229</v>
+        <v>1310</v>
       </c>
       <c r="G594" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.2">
@@ -18045,10 +18045,10 @@
         <v>636</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>1230</v>
+        <v>1310</v>
       </c>
       <c r="G595" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.2">
@@ -18068,10 +18068,10 @@
         <v>636</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>1231</v>
+        <v>1310</v>
       </c>
       <c r="G596" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.2">
@@ -18091,10 +18091,10 @@
         <v>636</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>1232</v>
+        <v>1310</v>
       </c>
       <c r="G597" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.2">
@@ -18114,10 +18114,10 @@
         <v>636</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>1233</v>
+        <v>1310</v>
       </c>
       <c r="G598" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.2">
@@ -18137,10 +18137,10 @@
         <v>636</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>1234</v>
+        <v>1310</v>
       </c>
       <c r="G599" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.2">
@@ -18160,10 +18160,10 @@
         <v>636</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>1235</v>
+        <v>1310</v>
       </c>
       <c r="G600" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.2">
@@ -18183,10 +18183,10 @@
         <v>636</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>1236</v>
+        <v>1310</v>
       </c>
       <c r="G601" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.2">
@@ -18206,10 +18206,10 @@
         <v>636</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>1237</v>
+        <v>1310</v>
       </c>
       <c r="G602" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.2">
@@ -18229,10 +18229,10 @@
         <v>636</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>1238</v>
+        <v>1310</v>
       </c>
       <c r="G603" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.2">
@@ -18252,10 +18252,10 @@
         <v>636</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>1239</v>
+        <v>1310</v>
       </c>
       <c r="G604" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.2">
@@ -18275,10 +18275,10 @@
         <v>636</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>1240</v>
+        <v>1310</v>
       </c>
       <c r="G605" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.2">
@@ -18298,10 +18298,10 @@
         <v>636</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>1241</v>
+        <v>1310</v>
       </c>
       <c r="G606" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.2">
@@ -18321,10 +18321,10 @@
         <v>636</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>1242</v>
+        <v>1310</v>
       </c>
       <c r="G607" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.2">
@@ -18344,10 +18344,10 @@
         <v>636</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>1243</v>
+        <v>1310</v>
       </c>
       <c r="G608" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.2">
@@ -18367,10 +18367,10 @@
         <v>636</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>1244</v>
+        <v>1310</v>
       </c>
       <c r="G609" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.2">
@@ -18390,10 +18390,10 @@
         <v>636</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>1245</v>
+        <v>1310</v>
       </c>
       <c r="G610" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.2">
@@ -18413,10 +18413,10 @@
         <v>636</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>1246</v>
+        <v>1310</v>
       </c>
       <c r="G611" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
@@ -18436,10 +18436,10 @@
         <v>636</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>1247</v>
+        <v>1310</v>
       </c>
       <c r="G612" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.2">
@@ -18459,10 +18459,10 @@
         <v>636</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>1248</v>
+        <v>1310</v>
       </c>
       <c r="G613" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.2">
@@ -18482,10 +18482,10 @@
         <v>636</v>
       </c>
       <c r="F614" s="1" t="s">
-        <v>1249</v>
+        <v>1310</v>
       </c>
       <c r="G614" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.2">
@@ -18505,10 +18505,10 @@
         <v>636</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>1250</v>
+        <v>1310</v>
       </c>
       <c r="G615" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.2">
@@ -18528,10 +18528,10 @@
         <v>636</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>1251</v>
+        <v>1310</v>
       </c>
       <c r="G616" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.2">
@@ -18551,10 +18551,10 @@
         <v>636</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>1252</v>
+        <v>1310</v>
       </c>
       <c r="G617" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.2">
@@ -18574,10 +18574,10 @@
         <v>636</v>
       </c>
       <c r="F618" s="1" t="s">
-        <v>1253</v>
+        <v>1310</v>
       </c>
       <c r="G618" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.2">
@@ -18597,10 +18597,10 @@
         <v>636</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>1254</v>
+        <v>1310</v>
       </c>
       <c r="G619" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.2">
@@ -18620,10 +18620,10 @@
         <v>636</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>1255</v>
+        <v>1310</v>
       </c>
       <c r="G620" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.2">
@@ -18643,10 +18643,10 @@
         <v>636</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>1256</v>
+        <v>1310</v>
       </c>
       <c r="G621" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
@@ -18666,10 +18666,10 @@
         <v>636</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>1257</v>
+        <v>1310</v>
       </c>
       <c r="G622" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.2">
@@ -18689,10 +18689,10 @@
         <v>636</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>1258</v>
+        <v>1310</v>
       </c>
       <c r="G623" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.2">
@@ -18712,10 +18712,10 @@
         <v>636</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>1259</v>
+        <v>1310</v>
       </c>
       <c r="G624" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.2">
@@ -18735,10 +18735,10 @@
         <v>636</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>1260</v>
+        <v>1310</v>
       </c>
       <c r="G625" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.2">
@@ -18758,10 +18758,10 @@
         <v>636</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>1261</v>
+        <v>1310</v>
       </c>
       <c r="G626" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.2">
@@ -18781,10 +18781,10 @@
         <v>636</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>1262</v>
+        <v>1310</v>
       </c>
       <c r="G627" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.2">
@@ -18804,10 +18804,10 @@
         <v>636</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>1263</v>
+        <v>1310</v>
       </c>
       <c r="G628" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.2">
@@ -18827,10 +18827,10 @@
         <v>636</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>1264</v>
+        <v>1310</v>
       </c>
       <c r="G629" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.2">
@@ -18850,10 +18850,10 @@
         <v>636</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>1265</v>
+        <v>1310</v>
       </c>
       <c r="G630" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.2">
@@ -18873,10 +18873,10 @@
         <v>636</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>1266</v>
+        <v>1310</v>
       </c>
       <c r="G631" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.2">
@@ -18896,10 +18896,10 @@
         <v>636</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>1267</v>
+        <v>1310</v>
       </c>
       <c r="G632" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.2">
@@ -18919,10 +18919,10 @@
         <v>636</v>
       </c>
       <c r="F633" s="1" t="s">
-        <v>1268</v>
+        <v>1310</v>
       </c>
       <c r="G633" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.2">
@@ -18942,10 +18942,10 @@
         <v>636</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>1269</v>
+        <v>1310</v>
       </c>
       <c r="G634" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.2">
@@ -18965,10 +18965,10 @@
         <v>636</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>1270</v>
+        <v>1310</v>
       </c>
       <c r="G635" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.2">
@@ -18988,10 +18988,10 @@
         <v>636</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>1271</v>
+        <v>1310</v>
       </c>
       <c r="G636" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.2">
@@ -19011,10 +19011,10 @@
         <v>636</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>1272</v>
+        <v>1310</v>
       </c>
       <c r="G637" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.2">
@@ -19034,10 +19034,10 @@
         <v>636</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>1273</v>
+        <v>1310</v>
       </c>
       <c r="G638" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.2">
@@ -19057,10 +19057,10 @@
         <v>636</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>1274</v>
+        <v>1310</v>
       </c>
       <c r="G639" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.2">
@@ -19080,10 +19080,10 @@
         <v>636</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>1275</v>
+        <v>1310</v>
       </c>
       <c r="G640" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.2">
@@ -19103,10 +19103,10 @@
         <v>636</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>1276</v>
+        <v>1310</v>
       </c>
       <c r="G641" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.2">
@@ -19126,10 +19126,10 @@
         <v>636</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>1277</v>
+        <v>1310</v>
       </c>
       <c r="G642" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.2">
@@ -19149,10 +19149,10 @@
         <v>636</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>1278</v>
+        <v>1310</v>
       </c>
       <c r="G643" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.2">
@@ -19172,10 +19172,10 @@
         <v>636</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>1279</v>
+        <v>1310</v>
       </c>
       <c r="G644" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.2">
@@ -19195,10 +19195,10 @@
         <v>636</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>1280</v>
+        <v>1310</v>
       </c>
       <c r="G645" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.2">
@@ -19218,10 +19218,10 @@
         <v>636</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>1281</v>
+        <v>1310</v>
       </c>
       <c r="G646" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.2">
@@ -19241,10 +19241,10 @@
         <v>636</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>1282</v>
+        <v>1310</v>
       </c>
       <c r="G647" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.2">
@@ -19264,10 +19264,10 @@
         <v>636</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>1283</v>
+        <v>1310</v>
       </c>
       <c r="G648" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.2">
@@ -19287,10 +19287,10 @@
         <v>636</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>1284</v>
+        <v>1310</v>
       </c>
       <c r="G649" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.2">
@@ -19310,10 +19310,10 @@
         <v>636</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>1285</v>
+        <v>1310</v>
       </c>
       <c r="G650" s="1" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
   </sheetData>

--- a/temp_doc/DATA SISWA.xlsx
+++ b/temp_doc/DATA SISWA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C960F24-A7FF-A143-94D0-FEDD290A8184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C11669-5C43-D541-B5FB-A6F61624D9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{A22911EF-5D24-2343-8839-FFE0F546D574}"/>
   </bookViews>
@@ -3971,7 +3971,7 @@
     <t>AHMAD NUR MUDZAKI</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>STS2023TH</t>
   </si>
 </sst>
 </file>
@@ -4034,9 +4034,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4354,7 +4355,7 @@
   <dimension ref="A1:G650"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G650"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4406,9 +4407,9 @@
         <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G2" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4429,9 +4430,9 @@
         <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4452,9 +4453,9 @@
         <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4475,9 +4476,9 @@
         <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4498,9 +4499,9 @@
         <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G6" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4521,9 +4522,9 @@
         <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4544,9 +4545,9 @@
         <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4567,9 +4568,9 @@
         <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G9" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4590,9 +4591,9 @@
         <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G10" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4613,9 +4614,9 @@
         <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G11" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4636,9 +4637,9 @@
         <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G12" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4659,9 +4660,9 @@
         <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G13" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4682,9 +4683,9 @@
         <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G14" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4705,9 +4706,9 @@
         <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G15" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4728,9 +4729,9 @@
         <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G16" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4751,9 +4752,9 @@
         <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G17" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4774,9 +4775,9 @@
         <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G18" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4797,9 +4798,9 @@
         <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G19" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4820,9 +4821,9 @@
         <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G20" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4843,9 +4844,9 @@
         <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G21" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4866,9 +4867,9 @@
         <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G22" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4889,9 +4890,9 @@
         <v>51</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G23" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4912,9 +4913,9 @@
         <v>51</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G24" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4935,9 +4936,9 @@
         <v>51</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G25" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4958,9 +4959,9 @@
         <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G26" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -4981,9 +4982,9 @@
         <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G27" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5004,9 +5005,9 @@
         <v>51</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G28" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5027,9 +5028,9 @@
         <v>51</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G29" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5050,9 +5051,9 @@
         <v>51</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G30" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5073,9 +5074,9 @@
         <v>51</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G31" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5096,9 +5097,9 @@
         <v>51</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G32" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5119,9 +5120,9 @@
         <v>51</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G33" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5142,9 +5143,9 @@
         <v>51</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G34" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5165,9 +5166,9 @@
         <v>51</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G35" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5188,9 +5189,9 @@
         <v>51</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G36" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5211,9 +5212,9 @@
         <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G37" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5234,9 +5235,9 @@
         <v>51</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G38" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5257,9 +5258,9 @@
         <v>51</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G39" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5280,9 +5281,9 @@
         <v>51</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G40" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5303,9 +5304,9 @@
         <v>51</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G41" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5326,9 +5327,9 @@
         <v>51</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G42" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5349,9 +5350,9 @@
         <v>51</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G43" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5372,9 +5373,9 @@
         <v>51</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G44" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5395,9 +5396,9 @@
         <v>51</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G45" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5418,9 +5419,9 @@
         <v>51</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G46" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5441,9 +5442,9 @@
         <v>51</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G47" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5464,9 +5465,9 @@
         <v>51</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G48" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5487,9 +5488,9 @@
         <v>51</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G49" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5510,9 +5511,9 @@
         <v>51</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G50" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5533,9 +5534,9 @@
         <v>51</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G51" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5556,9 +5557,9 @@
         <v>51</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G52" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5579,9 +5580,9 @@
         <v>51</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G53" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5602,9 +5603,9 @@
         <v>51</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G54" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5625,9 +5626,9 @@
         <v>51</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G55" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5648,9 +5649,9 @@
         <v>51</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G56" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5671,9 +5672,9 @@
         <v>51</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G57" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5694,9 +5695,9 @@
         <v>51</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G58" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5717,9 +5718,9 @@
         <v>51</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G59" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5740,9 +5741,9 @@
         <v>51</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G60" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5763,9 +5764,9 @@
         <v>51</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G61" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5786,9 +5787,9 @@
         <v>51</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G62" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5809,9 +5810,9 @@
         <v>51</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G63" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5832,9 +5833,9 @@
         <v>51</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G64" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5855,9 +5856,9 @@
         <v>51</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G65" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5878,9 +5879,9 @@
         <v>51</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G66" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5901,9 +5902,9 @@
         <v>51</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G67" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5924,9 +5925,9 @@
         <v>51</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G68" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5947,9 +5948,9 @@
         <v>51</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G69" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5970,9 +5971,9 @@
         <v>51</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G70" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -5993,9 +5994,9 @@
         <v>51</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G71" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6016,9 +6017,9 @@
         <v>51</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G72" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6039,9 +6040,9 @@
         <v>51</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G73" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6062,9 +6063,9 @@
         <v>51</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G74" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6085,9 +6086,9 @@
         <v>51</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G75" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6108,9 +6109,9 @@
         <v>51</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G76" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6131,9 +6132,9 @@
         <v>51</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G77" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6154,9 +6155,9 @@
         <v>51</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G78" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6177,9 +6178,9 @@
         <v>51</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G79" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6200,9 +6201,9 @@
         <v>51</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G80" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6223,9 +6224,9 @@
         <v>51</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G81" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6246,9 +6247,9 @@
         <v>51</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G82" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6269,9 +6270,9 @@
         <v>51</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G83" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6292,9 +6293,9 @@
         <v>51</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G84" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6315,9 +6316,9 @@
         <v>51</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G85" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6338,9 +6339,9 @@
         <v>51</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G86" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6361,9 +6362,9 @@
         <v>51</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G87" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6384,9 +6385,9 @@
         <v>182</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G88" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6407,9 +6408,9 @@
         <v>182</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G89" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6430,9 +6431,9 @@
         <v>182</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G90" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6453,9 +6454,9 @@
         <v>182</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G91" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6476,9 +6477,9 @@
         <v>182</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G92" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6499,9 +6500,9 @@
         <v>182</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G93" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6522,9 +6523,9 @@
         <v>182</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G94" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6545,9 +6546,9 @@
         <v>182</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G95" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6568,9 +6569,9 @@
         <v>182</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G96" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6591,9 +6592,9 @@
         <v>182</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G97" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6614,9 +6615,9 @@
         <v>182</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G98" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6637,9 +6638,9 @@
         <v>182</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G99" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6660,9 +6661,9 @@
         <v>182</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G100" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6683,9 +6684,9 @@
         <v>182</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G101" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6706,9 +6707,9 @@
         <v>182</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G102" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6729,9 +6730,9 @@
         <v>182</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G103" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6752,9 +6753,9 @@
         <v>182</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G104" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6775,9 +6776,9 @@
         <v>182</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G105" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6798,9 +6799,9 @@
         <v>182</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G106" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6821,9 +6822,9 @@
         <v>182</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G107" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6844,9 +6845,9 @@
         <v>182</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G108" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6867,9 +6868,9 @@
         <v>182</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G109" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6890,9 +6891,9 @@
         <v>182</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G110" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6913,9 +6914,9 @@
         <v>182</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G111" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6936,9 +6937,9 @@
         <v>182</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G112" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6959,9 +6960,9 @@
         <v>182</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G113" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -6982,9 +6983,9 @@
         <v>182</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G114" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7005,9 +7006,9 @@
         <v>182</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G115" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7028,9 +7029,9 @@
         <v>182</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G116" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7051,9 +7052,9 @@
         <v>182</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G117" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7074,9 +7075,9 @@
         <v>182</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G118" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7097,9 +7098,9 @@
         <v>182</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G119" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7120,9 +7121,9 @@
         <v>182</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G120" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7143,9 +7144,9 @@
         <v>182</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G121" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7166,9 +7167,9 @@
         <v>182</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G122" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7189,9 +7190,9 @@
         <v>182</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G123" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7212,9 +7213,9 @@
         <v>182</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G124" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7235,9 +7236,9 @@
         <v>182</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G125" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7258,9 +7259,9 @@
         <v>182</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G126" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7281,9 +7282,9 @@
         <v>182</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G127" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7304,9 +7305,9 @@
         <v>182</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G128" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7327,9 +7328,9 @@
         <v>182</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G129" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7350,9 +7351,9 @@
         <v>182</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G130" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7373,9 +7374,9 @@
         <v>182</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G131" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7396,9 +7397,9 @@
         <v>329</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G132" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7419,9 +7420,9 @@
         <v>329</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G133" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7442,9 +7443,9 @@
         <v>329</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G134" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7465,9 +7466,9 @@
         <v>329</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G135" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7488,9 +7489,9 @@
         <v>329</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G136" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7511,9 +7512,9 @@
         <v>329</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G137" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7534,9 +7535,9 @@
         <v>329</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G138" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7557,9 +7558,9 @@
         <v>329</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G139" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7580,9 +7581,9 @@
         <v>329</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G140" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7603,9 +7604,9 @@
         <v>329</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G141" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7626,9 +7627,9 @@
         <v>329</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G142" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7649,9 +7650,9 @@
         <v>329</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G143" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7672,9 +7673,9 @@
         <v>329</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G144" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7695,9 +7696,9 @@
         <v>329</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G145" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7718,9 +7719,9 @@
         <v>329</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G146" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7741,9 +7742,9 @@
         <v>329</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G147" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7764,9 +7765,9 @@
         <v>329</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G148" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7787,9 +7788,9 @@
         <v>329</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G149" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7810,9 +7811,9 @@
         <v>329</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G150" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7833,9 +7834,9 @@
         <v>329</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G151" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7856,9 +7857,9 @@
         <v>329</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G152" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7879,9 +7880,9 @@
         <v>329</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G153" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7902,9 +7903,9 @@
         <v>329</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G154" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7925,9 +7926,9 @@
         <v>329</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G155" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7948,9 +7949,9 @@
         <v>329</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G156" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7971,9 +7972,9 @@
         <v>329</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G157" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -7994,9 +7995,9 @@
         <v>329</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G158" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8017,9 +8018,9 @@
         <v>329</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G159" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8040,9 +8041,9 @@
         <v>329</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G160" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8063,9 +8064,9 @@
         <v>329</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G161" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8086,9 +8087,9 @@
         <v>329</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G162" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8109,9 +8110,9 @@
         <v>329</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G163" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8132,9 +8133,9 @@
         <v>329</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G164" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8155,9 +8156,9 @@
         <v>329</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G165" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8178,9 +8179,9 @@
         <v>329</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G166" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8201,9 +8202,9 @@
         <v>329</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G167" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8224,9 +8225,9 @@
         <v>329</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G168" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8247,9 +8248,9 @@
         <v>329</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G169" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8270,9 +8271,9 @@
         <v>329</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G170" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8293,9 +8294,9 @@
         <v>329</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G171" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8316,9 +8317,9 @@
         <v>329</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G172" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8339,9 +8340,9 @@
         <v>329</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G173" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8362,9 +8363,9 @@
         <v>329</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G174" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8385,9 +8386,9 @@
         <v>329</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G175" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8408,9 +8409,9 @@
         <v>329</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G176" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8431,9 +8432,9 @@
         <v>329</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G177" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8454,9 +8455,9 @@
         <v>329</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G178" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8477,9 +8478,9 @@
         <v>329</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G179" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8500,9 +8501,9 @@
         <v>329</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G180" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8523,9 +8524,9 @@
         <v>329</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G181" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8546,9 +8547,9 @@
         <v>329</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G182" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8569,9 +8570,9 @@
         <v>329</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G183" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8592,9 +8593,9 @@
         <v>329</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G184" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8615,9 +8616,9 @@
         <v>329</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G185" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8638,9 +8639,9 @@
         <v>329</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G186" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8661,9 +8662,9 @@
         <v>329</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G187" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8684,9 +8685,9 @@
         <v>329</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G188" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8707,9 +8708,9 @@
         <v>329</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G189" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8730,9 +8731,9 @@
         <v>329</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G190" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8753,9 +8754,9 @@
         <v>329</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G191" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8776,9 +8777,9 @@
         <v>329</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G192" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8799,9 +8800,9 @@
         <v>329</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G193" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8822,9 +8823,9 @@
         <v>329</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G194" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8845,9 +8846,9 @@
         <v>329</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G195" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8868,9 +8869,9 @@
         <v>329</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G196" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8891,9 +8892,9 @@
         <v>329</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G197" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8914,9 +8915,9 @@
         <v>329</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G198" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8937,9 +8938,9 @@
         <v>329</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G199" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8960,9 +8961,9 @@
         <v>329</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G200" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -8983,9 +8984,9 @@
         <v>329</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G201" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9006,9 +9007,9 @@
         <v>329</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G202" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9029,9 +9030,9 @@
         <v>329</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G203" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9052,9 +9053,9 @@
         <v>329</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G204" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9075,9 +9076,9 @@
         <v>329</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G205" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9098,9 +9099,9 @@
         <v>329</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G206" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9121,9 +9122,9 @@
         <v>329</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G207" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9144,9 +9145,9 @@
         <v>329</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G208" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9167,9 +9168,9 @@
         <v>329</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G209" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9190,9 +9191,9 @@
         <v>329</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G210" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9213,9 +9214,9 @@
         <v>329</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G211" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9236,9 +9237,9 @@
         <v>329</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G212" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9259,9 +9260,9 @@
         <v>329</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G213" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9282,9 +9283,9 @@
         <v>329</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G214" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9305,9 +9306,9 @@
         <v>329</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G215" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9328,9 +9329,9 @@
         <v>329</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G216" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9351,9 +9352,9 @@
         <v>329</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G217" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9374,9 +9375,9 @@
         <v>329</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G218" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9397,9 +9398,9 @@
         <v>329</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G219" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9420,9 +9421,9 @@
         <v>409</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G220" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9443,9 +9444,9 @@
         <v>409</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G221" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9466,9 +9467,9 @@
         <v>409</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G222" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9489,9 +9490,9 @@
         <v>409</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G223" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9512,9 +9513,9 @@
         <v>409</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G224" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9535,9 +9536,9 @@
         <v>409</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G225" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9558,9 +9559,9 @@
         <v>409</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G226" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9581,9 +9582,9 @@
         <v>409</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G227" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9604,9 +9605,9 @@
         <v>409</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G228" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9627,9 +9628,9 @@
         <v>409</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G229" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9650,9 +9651,9 @@
         <v>409</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G230" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9673,9 +9674,9 @@
         <v>409</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G231" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9696,9 +9697,9 @@
         <v>409</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G232" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9719,9 +9720,9 @@
         <v>409</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G233" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9742,9 +9743,9 @@
         <v>409</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G234" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9765,9 +9766,9 @@
         <v>409</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G235" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9788,9 +9789,9 @@
         <v>409</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G236" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="G236" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9811,9 +9812,9 @@
         <v>409</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G237" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9834,9 +9835,9 @@
         <v>409</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G238" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9857,9 +9858,9 @@
         <v>409</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G239" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9880,9 +9881,9 @@
         <v>409</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G240" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9903,9 +9904,9 @@
         <v>409</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G241" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9926,9 +9927,9 @@
         <v>409</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G242" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9949,9 +9950,9 @@
         <v>409</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G243" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9972,9 +9973,9 @@
         <v>409</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G244" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9995,9 +9996,9 @@
         <v>409</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G245" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10018,9 +10019,9 @@
         <v>409</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G246" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10041,9 +10042,9 @@
         <v>409</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G247" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10064,9 +10065,9 @@
         <v>409</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G248" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="G248" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10087,9 +10088,9 @@
         <v>409</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G249" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="G249" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10110,9 +10111,9 @@
         <v>409</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G250" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="G250" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10133,9 +10134,9 @@
         <v>409</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G251" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="G251" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10156,9 +10157,9 @@
         <v>409</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G252" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10179,9 +10180,9 @@
         <v>409</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G253" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="G253" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10202,9 +10203,9 @@
         <v>409</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G254" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10225,9 +10226,9 @@
         <v>409</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G255" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10248,9 +10249,9 @@
         <v>409</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G256" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="G256" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10271,9 +10272,9 @@
         <v>409</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G257" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="G257" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10294,9 +10295,9 @@
         <v>409</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G258" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="G258" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10317,9 +10318,9 @@
         <v>409</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G259" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10340,9 +10341,9 @@
         <v>409</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G260" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="G260" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10363,9 +10364,9 @@
         <v>409</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G261" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="G261" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10386,9 +10387,9 @@
         <v>636</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G262" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10409,9 +10410,9 @@
         <v>636</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G263" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="G263" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10432,9 +10433,9 @@
         <v>636</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G264" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="G264" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10455,9 +10456,9 @@
         <v>636</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G265" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G265" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10478,9 +10479,9 @@
         <v>636</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G266" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="G266" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10501,9 +10502,9 @@
         <v>636</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G267" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="G267" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10524,9 +10525,9 @@
         <v>636</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G268" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="G268" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10547,9 +10548,9 @@
         <v>636</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G269" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="G269" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10570,9 +10571,9 @@
         <v>636</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G270" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="G270" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10593,9 +10594,9 @@
         <v>636</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G271" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="G271" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10616,9 +10617,9 @@
         <v>636</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G272" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="G272" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10639,9 +10640,9 @@
         <v>636</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G273" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G273" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10662,9 +10663,9 @@
         <v>636</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G274" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="G274" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10685,9 +10686,9 @@
         <v>636</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G275" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G275" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10708,9 +10709,9 @@
         <v>636</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G276" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="G276" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10731,9 +10732,9 @@
         <v>636</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G277" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G277" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10754,9 +10755,9 @@
         <v>636</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G278" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="G278" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10777,9 +10778,9 @@
         <v>636</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G279" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G279" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10800,9 +10801,9 @@
         <v>636</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G280" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G280" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10823,9 +10824,9 @@
         <v>636</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G281" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="G281" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10846,9 +10847,9 @@
         <v>636</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G282" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="G282" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10869,9 +10870,9 @@
         <v>636</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G283" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="G283" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10892,9 +10893,9 @@
         <v>636</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G284" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="G284" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10915,9 +10916,9 @@
         <v>636</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G285" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="G285" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10938,9 +10939,9 @@
         <v>636</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G286" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="G286" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10961,9 +10962,9 @@
         <v>636</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G287" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="G287" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -10984,9 +10985,9 @@
         <v>636</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G288" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="G288" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11007,9 +11008,9 @@
         <v>636</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G289" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="G289" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11030,9 +11031,9 @@
         <v>636</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G290" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="G290" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11053,9 +11054,9 @@
         <v>636</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G291" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="G291" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11076,9 +11077,9 @@
         <v>636</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G292" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="G292" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11099,9 +11100,9 @@
         <v>636</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G293" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="G293" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11122,9 +11123,9 @@
         <v>636</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G294" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="G294" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11145,9 +11146,9 @@
         <v>636</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G295" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="G295" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11168,9 +11169,9 @@
         <v>636</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G296" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="G296" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11191,9 +11192,9 @@
         <v>636</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G297" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="G297" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11214,9 +11215,9 @@
         <v>636</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G298" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="G298" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11237,9 +11238,9 @@
         <v>636</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G299" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="G299" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11260,9 +11261,9 @@
         <v>636</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G300" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="G300" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11283,9 +11284,9 @@
         <v>636</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G301" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="G301" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11306,9 +11307,9 @@
         <v>636</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G302" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="G302" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11329,9 +11330,9 @@
         <v>636</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G303" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="G303" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11352,9 +11353,9 @@
         <v>636</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G304" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="G304" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11375,9 +11376,9 @@
         <v>636</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G305" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="G305" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11398,9 +11399,9 @@
         <v>636</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G306" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="G306" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11421,9 +11422,9 @@
         <v>636</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G307" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="G307" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11444,9 +11445,9 @@
         <v>636</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G308" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="G308" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11467,9 +11468,9 @@
         <v>636</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G309" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="G309" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11490,9 +11491,9 @@
         <v>636</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G310" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="G310" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11513,9 +11514,9 @@
         <v>636</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G311" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="G311" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11536,9 +11537,9 @@
         <v>636</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G312" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="G312" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11559,9 +11560,9 @@
         <v>636</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G313" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="G313" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11582,9 +11583,9 @@
         <v>636</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G314" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="G314" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11605,9 +11606,9 @@
         <v>636</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G315" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="G315" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11628,9 +11629,9 @@
         <v>636</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G316" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="G316" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11651,9 +11652,9 @@
         <v>636</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G317" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="G317" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11674,9 +11675,9 @@
         <v>636</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G318" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="G318" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11697,9 +11698,9 @@
         <v>636</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G319" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="G319" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11720,9 +11721,9 @@
         <v>636</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G320" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="G320" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11743,9 +11744,9 @@
         <v>636</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G321" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="G321" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11766,9 +11767,9 @@
         <v>636</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G322" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="G322" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11789,9 +11790,9 @@
         <v>636</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G323" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="G323" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11812,9 +11813,9 @@
         <v>636</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G324" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="G324" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11835,9 +11836,9 @@
         <v>636</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G325" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="G325" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11858,9 +11859,9 @@
         <v>636</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G326" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="G326" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11881,9 +11882,9 @@
         <v>636</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G327" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="G327" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11904,9 +11905,9 @@
         <v>636</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G328" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="G328" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11927,9 +11928,9 @@
         <v>636</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G329" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="G329" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11950,9 +11951,9 @@
         <v>636</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G330" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="G330" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11973,9 +11974,9 @@
         <v>636</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G331" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="G331" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -11996,9 +11997,9 @@
         <v>636</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G332" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="G332" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12019,9 +12020,9 @@
         <v>636</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G333" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="G333" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12042,9 +12043,9 @@
         <v>636</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G334" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G334" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12065,9 +12066,9 @@
         <v>636</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G335" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="G335" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12088,9 +12089,9 @@
         <v>636</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G336" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="G336" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12111,9 +12112,9 @@
         <v>636</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G337" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="G337" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12134,9 +12135,9 @@
         <v>636</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G338" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="G338" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12157,9 +12158,9 @@
         <v>636</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G339" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="G339" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12180,9 +12181,9 @@
         <v>636</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G340" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="G340" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12203,9 +12204,9 @@
         <v>636</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G341" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="G341" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12226,9 +12227,9 @@
         <v>636</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G342" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="G342" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12249,9 +12250,9 @@
         <v>636</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G343" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="G343" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12272,9 +12273,9 @@
         <v>636</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G344" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="G344" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12295,9 +12296,9 @@
         <v>636</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G345" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="G345" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12318,9 +12319,9 @@
         <v>636</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G346" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="G346" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12341,9 +12342,9 @@
         <v>636</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G347" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="G347" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12364,9 +12365,9 @@
         <v>636</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G348" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="G348" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12387,9 +12388,9 @@
         <v>636</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G349" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="G349" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12410,9 +12411,9 @@
         <v>636</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G350" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="G350" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12433,9 +12434,9 @@
         <v>636</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G351" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="G351" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12456,9 +12457,9 @@
         <v>636</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G352" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="G352" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12479,9 +12480,9 @@
         <v>636</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G353" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="G353" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12502,9 +12503,9 @@
         <v>636</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G354" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="G354" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12525,9 +12526,9 @@
         <v>636</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G355" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="G355" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12548,9 +12549,9 @@
         <v>636</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G356" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="G356" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12571,9 +12572,9 @@
         <v>636</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G357" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="G357" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12594,9 +12595,9 @@
         <v>636</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G358" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="G358" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12617,9 +12618,9 @@
         <v>636</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G359" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="G359" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12640,9 +12641,9 @@
         <v>636</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G360" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G360" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12663,9 +12664,9 @@
         <v>636</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G361" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="G361" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12686,9 +12687,9 @@
         <v>636</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G362" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="G362" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12709,9 +12710,9 @@
         <v>636</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G363" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="G363" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12732,9 +12733,9 @@
         <v>636</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G364" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="G364" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12755,9 +12756,9 @@
         <v>636</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G365" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G365" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12778,9 +12779,9 @@
         <v>636</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G366" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G366" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12801,9 +12802,9 @@
         <v>636</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G367" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G367" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12824,9 +12825,9 @@
         <v>636</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G368" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G368" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12847,9 +12848,9 @@
         <v>636</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G369" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G369" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12870,9 +12871,9 @@
         <v>636</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G370" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G370" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12893,9 +12894,9 @@
         <v>636</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G371" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G371" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12916,9 +12917,9 @@
         <v>636</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G372" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G372" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12939,9 +12940,9 @@
         <v>636</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G373" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G373" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12962,9 +12963,9 @@
         <v>636</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G374" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G374" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -12985,9 +12986,9 @@
         <v>636</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G375" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G375" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13008,9 +13009,9 @@
         <v>636</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G376" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G376" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13031,9 +13032,9 @@
         <v>636</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G377" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G377" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13054,9 +13055,9 @@
         <v>636</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G378" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G378" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13077,9 +13078,9 @@
         <v>636</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G379" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G379" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13100,9 +13101,9 @@
         <v>636</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G380" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G380" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13123,9 +13124,9 @@
         <v>636</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G381" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G381" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13146,9 +13147,9 @@
         <v>636</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G382" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G382" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13169,9 +13170,9 @@
         <v>636</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G383" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G383" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13192,9 +13193,9 @@
         <v>636</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G384" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G384" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13215,9 +13216,9 @@
         <v>636</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G385" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G385" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13238,9 +13239,9 @@
         <v>636</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G386" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G386" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13261,9 +13262,9 @@
         <v>636</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G387" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G387" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13284,9 +13285,9 @@
         <v>636</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G388" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G388" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13307,9 +13308,9 @@
         <v>636</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G389" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G389" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13330,9 +13331,9 @@
         <v>636</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G390" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G390" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13353,9 +13354,9 @@
         <v>636</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G391" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G391" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13376,9 +13377,9 @@
         <v>636</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G392" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G392" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13399,9 +13400,9 @@
         <v>636</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G393" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G393" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13422,9 +13423,9 @@
         <v>636</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G394" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G394" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13445,9 +13446,9 @@
         <v>636</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G395" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G395" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13468,9 +13469,9 @@
         <v>51</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G396" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G396" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13491,9 +13492,9 @@
         <v>51</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G397" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G397" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13514,9 +13515,9 @@
         <v>51</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G398" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G398" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13537,9 +13538,9 @@
         <v>51</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G399" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G399" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13560,9 +13561,9 @@
         <v>51</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G400" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G400" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13583,9 +13584,9 @@
         <v>51</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G401" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G401" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13606,9 +13607,9 @@
         <v>51</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G402" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G402" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13629,9 +13630,9 @@
         <v>51</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G403" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G403" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13652,9 +13653,9 @@
         <v>51</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G404" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G404" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13675,9 +13676,9 @@
         <v>51</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G405" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G405" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13698,9 +13699,9 @@
         <v>51</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G406" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G406" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13721,9 +13722,9 @@
         <v>51</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G407" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G407" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13744,9 +13745,9 @@
         <v>51</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G408" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G408" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13767,9 +13768,9 @@
         <v>51</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G409" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G409" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13790,9 +13791,9 @@
         <v>51</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G410" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G410" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13813,9 +13814,9 @@
         <v>51</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G411" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G411" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13836,9 +13837,9 @@
         <v>51</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G412" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G412" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13859,9 +13860,9 @@
         <v>51</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G413" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G413" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13882,9 +13883,9 @@
         <v>51</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G414" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G414" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13905,9 +13906,9 @@
         <v>51</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G415" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G415" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13928,9 +13929,9 @@
         <v>51</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G416" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G416" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13951,9 +13952,9 @@
         <v>51</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G417" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G417" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13974,9 +13975,9 @@
         <v>51</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G418" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G418" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -13997,9 +13998,9 @@
         <v>51</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G419" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G419" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14020,9 +14021,9 @@
         <v>51</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G420" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G420" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14043,9 +14044,9 @@
         <v>51</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G421" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G421" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14066,9 +14067,9 @@
         <v>51</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G422" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G422" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14089,9 +14090,9 @@
         <v>51</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G423" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G423" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14112,9 +14113,9 @@
         <v>51</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G424" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G424" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14135,9 +14136,9 @@
         <v>51</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G425" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G425" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14158,9 +14159,9 @@
         <v>51</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G426" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G426" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14181,9 +14182,9 @@
         <v>51</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G427" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G427" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14204,9 +14205,9 @@
         <v>51</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G428" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G428" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14227,9 +14228,9 @@
         <v>51</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G429" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G429" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14250,9 +14251,9 @@
         <v>51</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G430" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G430" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14273,9 +14274,9 @@
         <v>51</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G431" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G431" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14296,9 +14297,9 @@
         <v>51</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G432" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G432" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14319,9 +14320,9 @@
         <v>51</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G433" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G433" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14342,9 +14343,9 @@
         <v>51</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G434" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G434" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14365,9 +14366,9 @@
         <v>51</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G435" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G435" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14388,9 +14389,9 @@
         <v>51</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G436" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G436" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14411,9 +14412,9 @@
         <v>51</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G437" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G437" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14434,9 +14435,9 @@
         <v>51</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G438" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G438" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14457,9 +14458,9 @@
         <v>51</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G439" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G439" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14480,9 +14481,9 @@
         <v>51</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G440" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G440" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14503,9 +14504,9 @@
         <v>51</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G441" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G441" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14526,9 +14527,9 @@
         <v>51</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G442" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G442" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14549,9 +14550,9 @@
         <v>51</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G443" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G443" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14572,9 +14573,9 @@
         <v>51</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G444" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G444" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14595,9 +14596,9 @@
         <v>51</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G445" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G445" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14618,9 +14619,9 @@
         <v>409</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G446" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G446" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14641,9 +14642,9 @@
         <v>409</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G447" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G447" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14664,9 +14665,9 @@
         <v>409</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G448" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G448" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14687,9 +14688,9 @@
         <v>409</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G449" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G449" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14710,9 +14711,9 @@
         <v>409</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G450" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G450" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14733,9 +14734,9 @@
         <v>409</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G451" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G451" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14756,9 +14757,9 @@
         <v>409</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G452" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G452" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14779,9 +14780,9 @@
         <v>409</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G453" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G453" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14802,9 +14803,9 @@
         <v>409</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G454" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G454" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14825,9 +14826,9 @@
         <v>409</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G455" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G455" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14848,9 +14849,9 @@
         <v>409</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G456" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G456" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14871,9 +14872,9 @@
         <v>409</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G457" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G457" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14894,9 +14895,9 @@
         <v>409</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G458" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G458" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14917,9 +14918,9 @@
         <v>409</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G459" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G459" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14940,9 +14941,9 @@
         <v>409</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G460" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G460" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14963,9 +14964,9 @@
         <v>409</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G461" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G461" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -14986,9 +14987,9 @@
         <v>409</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G462" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G462" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15009,9 +15010,9 @@
         <v>409</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G463" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G463" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15032,9 +15033,9 @@
         <v>409</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G464" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G464" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15055,9 +15056,9 @@
         <v>409</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G465" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G465" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15078,9 +15079,9 @@
         <v>409</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G466" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G466" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15101,9 +15102,9 @@
         <v>409</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G467" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G467" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15124,9 +15125,9 @@
         <v>409</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G468" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G468" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15147,9 +15148,9 @@
         <v>409</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G469" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G469" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15170,9 +15171,9 @@
         <v>409</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G470" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G470" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15193,9 +15194,9 @@
         <v>409</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G471" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G471" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15216,9 +15217,9 @@
         <v>409</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G472" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G472" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15239,9 +15240,9 @@
         <v>409</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G473" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G473" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15262,9 +15263,9 @@
         <v>409</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G474" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G474" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15285,9 +15286,9 @@
         <v>409</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G475" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G475" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15308,9 +15309,9 @@
         <v>409</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G476" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G476" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15331,9 +15332,9 @@
         <v>409</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G477" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G477" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15354,9 +15355,9 @@
         <v>409</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G478" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G478" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15377,9 +15378,9 @@
         <v>409</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G479" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G479" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15400,9 +15401,9 @@
         <v>409</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G480" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G480" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15423,9 +15424,9 @@
         <v>409</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G481" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G481" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15446,9 +15447,9 @@
         <v>409</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G482" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G482" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15469,9 +15470,9 @@
         <v>409</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G483" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G483" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15492,9 +15493,9 @@
         <v>409</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G484" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G484" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15515,9 +15516,9 @@
         <v>409</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G485" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G485" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15538,9 +15539,9 @@
         <v>409</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G486" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G486" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15561,9 +15562,9 @@
         <v>329</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G487" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G487" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15584,9 +15585,9 @@
         <v>329</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G488" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G488" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15607,9 +15608,9 @@
         <v>329</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G489" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G489" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15630,9 +15631,9 @@
         <v>329</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G490" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G490" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15653,9 +15654,9 @@
         <v>329</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G491" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G491" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15676,9 +15677,9 @@
         <v>329</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G492" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G492" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15699,9 +15700,9 @@
         <v>329</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G493" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G493" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15722,9 +15723,9 @@
         <v>329</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G494" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G494" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15745,9 +15746,9 @@
         <v>329</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G495" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G495" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15768,9 +15769,9 @@
         <v>329</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G496" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G496" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15791,9 +15792,9 @@
         <v>329</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G497" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G497" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15814,9 +15815,9 @@
         <v>329</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G498" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G498" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15837,9 +15838,9 @@
         <v>329</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G499" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G499" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15860,9 +15861,9 @@
         <v>329</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G500" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G500" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15883,9 +15884,9 @@
         <v>329</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G501" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G501" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15906,9 +15907,9 @@
         <v>329</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G502" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G502" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15929,9 +15930,9 @@
         <v>329</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G503" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G503" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15952,9 +15953,9 @@
         <v>329</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G504" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G504" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15975,9 +15976,9 @@
         <v>329</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G505" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G505" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -15998,9 +15999,9 @@
         <v>329</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G506" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G506" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16021,9 +16022,9 @@
         <v>329</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G507" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G507" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16044,9 +16045,9 @@
         <v>329</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G508" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G508" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16067,9 +16068,9 @@
         <v>329</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G509" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G509" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16090,9 +16091,9 @@
         <v>329</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G510" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G510" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16113,9 +16114,9 @@
         <v>329</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G511" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G511" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16136,9 +16137,9 @@
         <v>329</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G512" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G512" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16159,9 +16160,9 @@
         <v>329</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G513" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G513" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16182,9 +16183,9 @@
         <v>329</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G514" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G514" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16205,9 +16206,9 @@
         <v>329</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G515" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G515" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16228,9 +16229,9 @@
         <v>329</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G516" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G516" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16251,9 +16252,9 @@
         <v>329</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G517" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G517" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16274,9 +16275,9 @@
         <v>329</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G518" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G518" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16297,9 +16298,9 @@
         <v>329</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G519" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G519" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16320,9 +16321,9 @@
         <v>329</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G520" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G520" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16343,9 +16344,9 @@
         <v>329</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G521" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G521" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16366,9 +16367,9 @@
         <v>329</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G522" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G522" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16389,9 +16390,9 @@
         <v>329</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G523" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G523" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16412,9 +16413,9 @@
         <v>329</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G524" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G524" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16435,9 +16436,9 @@
         <v>329</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G525" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G525" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16458,9 +16459,9 @@
         <v>329</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G526" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G526" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16481,9 +16482,9 @@
         <v>329</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G527" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G527" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16504,9 +16505,9 @@
         <v>329</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G528" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G528" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16527,9 +16528,9 @@
         <v>329</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G529" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G529" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16550,9 +16551,9 @@
         <v>329</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G530" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G530" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16573,9 +16574,9 @@
         <v>329</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G531" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G531" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16596,9 +16597,9 @@
         <v>329</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G532" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G532" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16619,9 +16620,9 @@
         <v>329</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G533" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G533" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16642,9 +16643,9 @@
         <v>329</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G534" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G534" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16665,9 +16666,9 @@
         <v>329</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G535" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G535" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16688,9 +16689,9 @@
         <v>329</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G536" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G536" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16711,9 +16712,9 @@
         <v>329</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G537" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G537" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16734,9 +16735,9 @@
         <v>329</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G538" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G538" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16757,9 +16758,9 @@
         <v>329</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G539" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G539" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16780,9 +16781,9 @@
         <v>329</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G540" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G540" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16803,9 +16804,9 @@
         <v>329</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G541" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G541" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16826,9 +16827,9 @@
         <v>329</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G542" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G542" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16849,9 +16850,9 @@
         <v>329</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G543" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G543" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16872,9 +16873,9 @@
         <v>329</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G544" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G544" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16895,9 +16896,9 @@
         <v>329</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G545" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G545" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16918,9 +16919,9 @@
         <v>329</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G546" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G546" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16941,9 +16942,9 @@
         <v>329</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G547" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G547" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16964,9 +16965,9 @@
         <v>329</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G548" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G548" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -16987,9 +16988,9 @@
         <v>329</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G549" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G549" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17010,9 +17011,9 @@
         <v>329</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G550" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G550" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17033,9 +17034,9 @@
         <v>636</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G551" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G551" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17056,9 +17057,9 @@
         <v>636</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G552" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G552" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17079,9 +17080,9 @@
         <v>636</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G553" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G553" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17102,9 +17103,9 @@
         <v>636</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G554" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G554" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17125,9 +17126,9 @@
         <v>636</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G555" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G555" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17148,9 +17149,9 @@
         <v>636</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G556" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G556" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17171,9 +17172,9 @@
         <v>636</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G557" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G557" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17194,9 +17195,9 @@
         <v>636</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G558" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G558" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17217,9 +17218,9 @@
         <v>636</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G559" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G559" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17240,9 +17241,9 @@
         <v>636</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G560" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G560" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17263,9 +17264,9 @@
         <v>636</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G561" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G561" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17286,9 +17287,9 @@
         <v>636</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G562" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G562" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17309,9 +17310,9 @@
         <v>636</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G563" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G563" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17332,9 +17333,9 @@
         <v>636</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G564" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G564" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17355,9 +17356,9 @@
         <v>636</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G565" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G565" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17378,9 +17379,9 @@
         <v>636</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G566" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G566" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17401,9 +17402,9 @@
         <v>636</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G567" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G567" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17424,9 +17425,9 @@
         <v>636</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G568" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G568" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17447,9 +17448,9 @@
         <v>636</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G569" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G569" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17470,9 +17471,9 @@
         <v>636</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G570" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G570" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17493,9 +17494,9 @@
         <v>636</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G571" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G571" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17516,9 +17517,9 @@
         <v>636</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G572" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G572" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17539,9 +17540,9 @@
         <v>636</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G573" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G573" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17562,9 +17563,9 @@
         <v>636</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G574" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G574" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17585,9 +17586,9 @@
         <v>636</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G575" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G575" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17608,9 +17609,9 @@
         <v>636</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G576" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G576" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17631,9 +17632,9 @@
         <v>636</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G577" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G577" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17654,9 +17655,9 @@
         <v>636</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G578" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G578" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17677,9 +17678,9 @@
         <v>636</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G579" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G579" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17700,9 +17701,9 @@
         <v>636</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G580" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G580" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17723,9 +17724,9 @@
         <v>636</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G581" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G581" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17746,9 +17747,9 @@
         <v>636</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G582" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G582" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17769,9 +17770,9 @@
         <v>636</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G583" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G583" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17792,9 +17793,9 @@
         <v>636</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G584" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G584" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17815,9 +17816,9 @@
         <v>636</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G585" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G585" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17838,9 +17839,9 @@
         <v>636</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G586" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G586" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17861,9 +17862,9 @@
         <v>636</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G587" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G587" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17884,9 +17885,9 @@
         <v>636</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G588" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G588" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17907,9 +17908,9 @@
         <v>636</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G589" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G589" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17930,9 +17931,9 @@
         <v>636</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G590" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G590" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17953,9 +17954,9 @@
         <v>636</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G591" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G591" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17976,9 +17977,9 @@
         <v>636</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G592" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G592" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17999,9 +18000,9 @@
         <v>636</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G593" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G593" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18022,9 +18023,9 @@
         <v>636</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G594" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G594" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18045,9 +18046,9 @@
         <v>636</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G595" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G595" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18068,9 +18069,9 @@
         <v>636</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G596" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G596" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18091,9 +18092,9 @@
         <v>636</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G597" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G597" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18114,9 +18115,9 @@
         <v>636</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G598" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G598" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18137,9 +18138,9 @@
         <v>636</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G599" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G599" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18160,9 +18161,9 @@
         <v>636</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G600" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G600" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18183,9 +18184,9 @@
         <v>636</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G601" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G601" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18206,9 +18207,9 @@
         <v>636</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G602" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G602" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18229,9 +18230,9 @@
         <v>636</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G603" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G603" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18252,9 +18253,9 @@
         <v>636</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G604" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G604" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18275,9 +18276,9 @@
         <v>636</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G605" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G605" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18298,9 +18299,9 @@
         <v>636</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G606" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G606" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18321,9 +18322,9 @@
         <v>636</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G607" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G607" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18344,9 +18345,9 @@
         <v>636</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G608" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G608" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18367,9 +18368,9 @@
         <v>636</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G609" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G609" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18390,9 +18391,9 @@
         <v>636</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G610" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G610" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18413,9 +18414,9 @@
         <v>636</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G611" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G611" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18436,9 +18437,9 @@
         <v>636</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G612" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G612" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18459,9 +18460,9 @@
         <v>636</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G613" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G613" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18482,9 +18483,9 @@
         <v>636</v>
       </c>
       <c r="F614" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G614" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G614" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18505,9 +18506,9 @@
         <v>636</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G615" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G615" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18528,9 +18529,9 @@
         <v>636</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G616" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G616" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18551,9 +18552,9 @@
         <v>636</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G617" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G617" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18574,9 +18575,9 @@
         <v>636</v>
       </c>
       <c r="F618" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G618" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G618" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18597,9 +18598,9 @@
         <v>636</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G619" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G619" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18620,9 +18621,9 @@
         <v>636</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G620" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G620" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18643,9 +18644,9 @@
         <v>636</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G621" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G621" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18666,9 +18667,9 @@
         <v>636</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G622" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G622" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18689,9 +18690,9 @@
         <v>636</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G623" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G623" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18712,9 +18713,9 @@
         <v>636</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G624" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G624" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18735,9 +18736,9 @@
         <v>636</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G625" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G625" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18758,9 +18759,9 @@
         <v>636</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G626" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G626" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18781,9 +18782,9 @@
         <v>636</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G627" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G627" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18804,9 +18805,9 @@
         <v>636</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G628" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G628" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18827,9 +18828,9 @@
         <v>636</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G629" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G629" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18850,9 +18851,9 @@
         <v>636</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G630" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G630" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18873,9 +18874,9 @@
         <v>636</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G631" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G631" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18896,9 +18897,9 @@
         <v>636</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G632" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G632" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18919,9 +18920,9 @@
         <v>636</v>
       </c>
       <c r="F633" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G633" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G633" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18942,9 +18943,9 @@
         <v>636</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G634" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G634" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18965,9 +18966,9 @@
         <v>636</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G635" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G635" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -18988,9 +18989,9 @@
         <v>636</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G636" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G636" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -19011,9 +19012,9 @@
         <v>636</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G637" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G637" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -19034,9 +19035,9 @@
         <v>636</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G638" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G638" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -19057,9 +19058,9 @@
         <v>636</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G639" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G639" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -19080,9 +19081,9 @@
         <v>636</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G640" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G640" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -19103,9 +19104,9 @@
         <v>636</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G641" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G641" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -19126,9 +19127,9 @@
         <v>636</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G642" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G642" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -19149,9 +19150,9 @@
         <v>636</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G643" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G643" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -19172,9 +19173,9 @@
         <v>636</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G644" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G644" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -19195,9 +19196,9 @@
         <v>636</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G645" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G645" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -19218,9 +19219,9 @@
         <v>636</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G646" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G646" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -19241,9 +19242,9 @@
         <v>636</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G647" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G647" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -19264,9 +19265,9 @@
         <v>636</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G648" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G648" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -19287,9 +19288,9 @@
         <v>636</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G649" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G649" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -19310,9 +19311,9 @@
         <v>636</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G650" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G650" s="2" t="s">
         <v>1310</v>
       </c>
     </row>
